--- a/outputs-HGR-r202/train-f__CAG-239_split_pruned.xlsx
+++ b/outputs-HGR-r202/train-f__CAG-239_split_pruned.xlsx
@@ -9,6 +9,8 @@
     <sheet name="quadratic-svm-score5" sheetId="2" r:id="rId3"/>
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
+    <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -16,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="921">
   <si>
     <t>Row</t>
   </si>
@@ -1684,6 +1686,1101 @@
   </si>
   <si>
     <t>label_UMGS1578_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS148_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS148_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS148_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS148_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS148_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS148_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS148_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS148_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS149_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS149_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS149_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS149_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS149_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS149_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS149_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS149_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS149_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS149_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS418_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS418_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS418_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS418_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS418_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS418_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS418_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS418_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS418_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS418_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS418_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS418_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS418_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS418_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS418_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1453_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1453_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1453_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1453_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_103.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_105.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_110.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_111.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_112.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_114.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_75.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_77.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_84.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_93.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_98.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_100.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_107.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_117.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_118.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_123.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_124.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_74.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_76.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_79.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_82.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_85.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_86.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_97.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2073_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2073_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2073_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2073_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2073_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2073_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_67.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_74.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_75.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_78.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_75.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_87.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_89.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_67.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_75.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_77.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_87.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_72.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_78.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_80.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_85.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_87.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_90.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS148_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS148_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS148_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS148_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS148_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS148_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS148_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS149_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS149_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS149_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS149_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS149_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS149_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS149_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS149_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS149_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS149_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS149_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS149_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS149_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS149_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS149_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS418_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS418_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS418_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS418_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS418_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS418_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS418_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS418_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS418_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS418_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1453_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1453_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1453_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1453_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1453_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_100.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_101.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_108.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_109.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_67.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_94.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS690_96.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_102.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_103.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_108.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_109.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_112.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_119.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_126.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_127.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_128.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_70.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1426_78.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2073_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2073_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2073_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2073_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2073_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2073_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2073_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2073_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2073_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2073_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2073_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2073_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2073_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2073_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2073_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS223_80.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_70.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_85.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS241_91.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS63_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS64_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_70.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_73.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_79.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_82.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_85.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_86.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS65_90.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_67.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_70.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_82.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_84.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_86.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1578_89.fasta</t>
   </si>
 </sst>
 </file>
@@ -1704,7 +2801,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1718,11 +2815,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1730,6 +2831,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14485,4 +15590,8481 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G184"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="4" max="4" width="15.7109375" customWidth="true"/>
+    <col min="5" max="5" width="15.7109375" customWidth="true"/>
+    <col min="6" max="6" width="10.28515625" customWidth="true"/>
+    <col min="7" max="7" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="B2">
+        <v>0.98260312994736865</v>
+      </c>
+      <c r="C2">
+        <v>0.0022268709484274283</v>
+      </c>
+      <c r="D2">
+        <v>0.01516999910418171</v>
+      </c>
+      <c r="E2">
+        <v>2.219906566557554e-14</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="B3">
+        <v>0.97723979790679161</v>
+      </c>
+      <c r="C3">
+        <v>0.00027954741313476392</v>
+      </c>
+      <c r="D3">
+        <v>0.022480654679970249</v>
+      </c>
+      <c r="E3">
+        <v>1.0331922230167511e-13</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="B4">
+        <v>0.99494959722995291</v>
+      </c>
+      <c r="C4">
+        <v>0.00011651427690959191</v>
+      </c>
+      <c r="D4">
+        <v>0.004933888492895438</v>
+      </c>
+      <c r="E4">
+        <v>2.4208462627485477e-13</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="B5">
+        <v>0.98853330399344463</v>
+      </c>
+      <c r="C5">
+        <v>0.0013682703295024052</v>
+      </c>
+      <c r="D5">
+        <v>0.010098425676485629</v>
+      </c>
+      <c r="E5">
+        <v>5.6731090814560145e-13</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="B6">
+        <v>0.98497968306867267</v>
+      </c>
+      <c r="C6">
+        <v>0.0059992490916549891</v>
+      </c>
+      <c r="D6">
+        <v>0.0090210641913586152</v>
+      </c>
+      <c r="E6">
+        <v>3.64831379439018e-09</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="B7">
+        <v>0.85331590945510583</v>
+      </c>
+      <c r="C7">
+        <v>0.020623478207547546</v>
+      </c>
+      <c r="D7">
+        <v>0.12606041010284938</v>
+      </c>
+      <c r="E7">
+        <v>2.0223449719545138e-07</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="B8">
+        <v>0.96263144100839493</v>
+      </c>
+      <c r="C8">
+        <v>0.00013690588435186362</v>
+      </c>
+      <c r="D8">
+        <v>0.037231653100050652</v>
+      </c>
+      <c r="E8">
+        <v>7.2025898181123722e-12</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="B9">
+        <v>0.14223888294933398</v>
+      </c>
+      <c r="C9">
+        <v>0.64217802506090815</v>
+      </c>
+      <c r="D9">
+        <v>0.21555814271548221</v>
+      </c>
+      <c r="E9">
+        <v>2.494927427564687e-05</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B10">
+        <v>0.9702297391884448</v>
+      </c>
+      <c r="C10">
+        <v>1.234172321519972e-06</v>
+      </c>
+      <c r="D10">
+        <v>0.029768966847810694</v>
+      </c>
+      <c r="E10">
+        <v>5.9791422917624903e-08</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="B11">
+        <v>0.9870760058463186</v>
+      </c>
+      <c r="C11">
+        <v>3.970975367948494e-05</v>
+      </c>
+      <c r="D11">
+        <v>0.012882274164053614</v>
+      </c>
+      <c r="E11">
+        <v>2.0102359483428224e-06</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="B12">
+        <v>0.8551307864249017</v>
+      </c>
+      <c r="C12">
+        <v>1.3619916524215806e-05</v>
+      </c>
+      <c r="D12">
+        <v>0.14484201700658536</v>
+      </c>
+      <c r="E12">
+        <v>1.3576651988679859e-05</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="B13">
+        <v>0.99228504718844801</v>
+      </c>
+      <c r="C13">
+        <v>3.5036465537701848e-05</v>
+      </c>
+      <c r="D13">
+        <v>0.0076795604493298791</v>
+      </c>
+      <c r="E13">
+        <v>3.5589668448874155e-07</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="B14">
+        <v>0.9299952186019016</v>
+      </c>
+      <c r="C14">
+        <v>2.3153378885344712e-05</v>
+      </c>
+      <c r="D14">
+        <v>0.069958678436368965</v>
+      </c>
+      <c r="E14">
+        <v>2.2949582843960124e-05</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="B15">
+        <v>0.88318088615052959</v>
+      </c>
+      <c r="C15">
+        <v>5.6124330766665827e-05</v>
+      </c>
+      <c r="D15">
+        <v>0.11670767278760913</v>
+      </c>
+      <c r="E15">
+        <v>5.5316731094617866e-05</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="B16">
+        <v>0.81152856185397237</v>
+      </c>
+      <c r="C16">
+        <v>6.182325874177217e-05</v>
+      </c>
+      <c r="D16">
+        <v>0.1878478908173794</v>
+      </c>
+      <c r="E16">
+        <v>0.00056172406990649508</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B17">
+        <v>0.17212119987117663</v>
+      </c>
+      <c r="C17">
+        <v>0.037640322204841994</v>
+      </c>
+      <c r="D17">
+        <v>0.77359222831358909</v>
+      </c>
+      <c r="E17">
+        <v>0.016646249610392336</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="B18">
+        <v>0.40731912080761573</v>
+      </c>
+      <c r="C18">
+        <v>0.0011831192335826084</v>
+      </c>
+      <c r="D18">
+        <v>0.58802874089152912</v>
+      </c>
+      <c r="E18">
+        <v>0.0034690190672725624</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="B19">
+        <v>0.08011603747273803</v>
+      </c>
+      <c r="C19">
+        <v>0.035469170713027104</v>
+      </c>
+      <c r="D19">
+        <v>0.88357438113793774</v>
+      </c>
+      <c r="E19">
+        <v>0.00084041067629700157</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="B20">
+        <v>0.95335301986852439</v>
+      </c>
+      <c r="C20">
+        <v>0.0031882167176537413</v>
+      </c>
+      <c r="D20">
+        <v>0.042555391364487292</v>
+      </c>
+      <c r="E20">
+        <v>0.00090337204933464298</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B21">
+        <v>0.9362828546501798</v>
+      </c>
+      <c r="C21">
+        <v>0.00029125230286722548</v>
+      </c>
+      <c r="D21">
+        <v>0.063407000999943605</v>
+      </c>
+      <c r="E21">
+        <v>1.8892047009402821e-05</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B22">
+        <v>0.97566972848036415</v>
+      </c>
+      <c r="C22">
+        <v>0.0017499971308718024</v>
+      </c>
+      <c r="D22">
+        <v>0.022243880765180774</v>
+      </c>
+      <c r="E22">
+        <v>0.00033639362358325317</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="B23">
+        <v>0.93290905786054079</v>
+      </c>
+      <c r="C23">
+        <v>0.0077112639759511084</v>
+      </c>
+      <c r="D23">
+        <v>0.055841284911394264</v>
+      </c>
+      <c r="E23">
+        <v>0.0035383932521137395</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B24">
+        <v>0.80648753059377076</v>
+      </c>
+      <c r="C24">
+        <v>0.045192029315716087</v>
+      </c>
+      <c r="D24">
+        <v>0.14021876180978998</v>
+      </c>
+      <c r="E24">
+        <v>0.0081016782807231784</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="B25">
+        <v>0.98227049995072602</v>
+      </c>
+      <c r="C25">
+        <v>0.0022527235692474269</v>
+      </c>
+      <c r="D25">
+        <v>0.014626909374146234</v>
+      </c>
+      <c r="E25">
+        <v>0.00084986710588047011</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="B26">
+        <v>0.94512555034291368</v>
+      </c>
+      <c r="C26">
+        <v>0.0016135297231430323</v>
+      </c>
+      <c r="D26">
+        <v>0.022457925746969039</v>
+      </c>
+      <c r="E26">
+        <v>0.030802994186974214</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="B27">
+        <v>0.85662456299404555</v>
+      </c>
+      <c r="C27">
+        <v>0.026968193598348358</v>
+      </c>
+      <c r="D27">
+        <v>0.10050969898397938</v>
+      </c>
+      <c r="E27">
+        <v>0.01589754442362664</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="B28">
+        <v>0.98241103280891662</v>
+      </c>
+      <c r="C28">
+        <v>0.0041722139052835826</v>
+      </c>
+      <c r="D28">
+        <v>0.013407973271873408</v>
+      </c>
+      <c r="E28">
+        <v>8.7800139265924052e-06</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="B29">
+        <v>0.95734888417082808</v>
+      </c>
+      <c r="C29">
+        <v>0.0097751888380945666</v>
+      </c>
+      <c r="D29">
+        <v>0.032730081739258496</v>
+      </c>
+      <c r="E29">
+        <v>0.00014584525181876169</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B30">
+        <v>0.56722059458319396</v>
+      </c>
+      <c r="C30">
+        <v>0.00077019255092151408</v>
+      </c>
+      <c r="D30">
+        <v>0.42765314464972459</v>
+      </c>
+      <c r="E30">
+        <v>0.0043560682161600233</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="B31">
+        <v>0.98630078358987161</v>
+      </c>
+      <c r="C31">
+        <v>0.0083026850001370976</v>
+      </c>
+      <c r="D31">
+        <v>0.0053856147791565027</v>
+      </c>
+      <c r="E31">
+        <v>1.0916630834753961e-05</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="B32">
+        <v>0.022234551200779964</v>
+      </c>
+      <c r="C32">
+        <v>0.0018010174212233494</v>
+      </c>
+      <c r="D32">
+        <v>0.35678702687203639</v>
+      </c>
+      <c r="E32">
+        <v>0.61917740450596037</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="B33">
+        <v>0.28838355321214965</v>
+      </c>
+      <c r="C33">
+        <v>0.19216259778937603</v>
+      </c>
+      <c r="D33">
+        <v>0.19752081069336236</v>
+      </c>
+      <c r="E33">
+        <v>0.32193303830511211</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="B34">
+        <v>0.97384623609027465</v>
+      </c>
+      <c r="C34">
+        <v>0.0012144783864556333</v>
+      </c>
+      <c r="D34">
+        <v>0.024913561728325297</v>
+      </c>
+      <c r="E34">
+        <v>2.5723794944401447e-05</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="B35">
+        <v>0.0034729809451372372</v>
+      </c>
+      <c r="C35">
+        <v>0.92253043241953414</v>
+      </c>
+      <c r="D35">
+        <v>0.073996577782199174</v>
+      </c>
+      <c r="E35">
+        <v>8.8531292993614164e-09</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="B36">
+        <v>4.7051822772691585e-05</v>
+      </c>
+      <c r="C36">
+        <v>0.97791179405133111</v>
+      </c>
+      <c r="D36">
+        <v>0.022041141203230027</v>
+      </c>
+      <c r="E36">
+        <v>1.2922666074720448e-08</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="B37">
+        <v>0.0036611650431658833</v>
+      </c>
+      <c r="C37">
+        <v>0.98738611430837331</v>
+      </c>
+      <c r="D37">
+        <v>0.0089527203728941122</v>
+      </c>
+      <c r="E37">
+        <v>2.7556680291399127e-10</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="B38">
+        <v>0.013181973769263765</v>
+      </c>
+      <c r="C38">
+        <v>0.92275854882055008</v>
+      </c>
+      <c r="D38">
+        <v>0.064058882973928644</v>
+      </c>
+      <c r="E38">
+        <v>5.9443625755528653e-07</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="B39">
+        <v>0.000296960515269068</v>
+      </c>
+      <c r="C39">
+        <v>0.4956907006701472</v>
+      </c>
+      <c r="D39">
+        <v>0.50393688517052182</v>
+      </c>
+      <c r="E39">
+        <v>7.5453644061786567e-05</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="B40">
+        <v>0.00049543719672654591</v>
+      </c>
+      <c r="C40">
+        <v>0.38254810685213264</v>
+      </c>
+      <c r="D40">
+        <v>0.60944709156670962</v>
+      </c>
+      <c r="E40">
+        <v>0.0075093643844311806</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="B41">
+        <v>0.004753551407707726</v>
+      </c>
+      <c r="C41">
+        <v>0.97898733431131035</v>
+      </c>
+      <c r="D41">
+        <v>0.01625911250269944</v>
+      </c>
+      <c r="E41">
+        <v>1.7782826084865383e-09</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="B42">
+        <v>0.012997945748612075</v>
+      </c>
+      <c r="C42">
+        <v>0.39439363174220388</v>
+      </c>
+      <c r="D42">
+        <v>0.5632436057797332</v>
+      </c>
+      <c r="E42">
+        <v>0.029364816729450897</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="B43">
+        <v>6.6683177538177856e-05</v>
+      </c>
+      <c r="C43">
+        <v>0.15629674061609439</v>
+      </c>
+      <c r="D43">
+        <v>0.84228654853638874</v>
+      </c>
+      <c r="E43">
+        <v>0.0013500276699787137</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B44">
+        <v>0.26330635456277113</v>
+      </c>
+      <c r="C44">
+        <v>0.36417089145851506</v>
+      </c>
+      <c r="D44">
+        <v>0.31082231798269067</v>
+      </c>
+      <c r="E44">
+        <v>0.061700435996023179</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="B45">
+        <v>0.01493819908088748</v>
+      </c>
+      <c r="C45">
+        <v>0.14135174357427155</v>
+      </c>
+      <c r="D45">
+        <v>0.81710887358041839</v>
+      </c>
+      <c r="E45">
+        <v>0.026601183764422606</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="B46">
+        <v>0.016839158125751305</v>
+      </c>
+      <c r="C46">
+        <v>0.72416998181942471</v>
+      </c>
+      <c r="D46">
+        <v>0.25899085989783122</v>
+      </c>
+      <c r="E46">
+        <v>1.5699268072628023e-10</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="B47">
+        <v>0.028091417921932572</v>
+      </c>
+      <c r="C47">
+        <v>0.68737167701457247</v>
+      </c>
+      <c r="D47">
+        <v>0.28453575707681783</v>
+      </c>
+      <c r="E47">
+        <v>1.1479866772774314e-06</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="B48">
+        <v>0.0069153214642912334</v>
+      </c>
+      <c r="C48">
+        <v>0.81111418326935258</v>
+      </c>
+      <c r="D48">
+        <v>0.18197049519839475</v>
+      </c>
+      <c r="E48">
+        <v>6.79614318705162e-11</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="B49">
+        <v>0.00043694624503891251</v>
+      </c>
+      <c r="C49">
+        <v>0.8181935828289334</v>
+      </c>
+      <c r="D49">
+        <v>0.18136810429978936</v>
+      </c>
+      <c r="E49">
+        <v>1.3666262384439563e-06</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="B50">
+        <v>0.24232245292940077</v>
+      </c>
+      <c r="C50">
+        <v>0.51610262284272623</v>
+      </c>
+      <c r="D50">
+        <v>0.24157280128974201</v>
+      </c>
+      <c r="E50">
+        <v>2.1229381308491671e-06</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="B51">
+        <v>0.090852099450876744</v>
+      </c>
+      <c r="C51">
+        <v>0.39503709152004507</v>
+      </c>
+      <c r="D51">
+        <v>0.51353273547387923</v>
+      </c>
+      <c r="E51">
+        <v>0.00057807355519877673</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="B52">
+        <v>7.6883033087672917e-05</v>
+      </c>
+      <c r="C52">
+        <v>0.99694660082640918</v>
+      </c>
+      <c r="D52">
+        <v>0.0029765161403656221</v>
+      </c>
+      <c r="E52">
+        <v>1.3750206338638877e-13</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="B53">
+        <v>0.0041503046019259896</v>
+      </c>
+      <c r="C53">
+        <v>0.56463257138774225</v>
+      </c>
+      <c r="D53">
+        <v>0.43061707785564041</v>
+      </c>
+      <c r="E53">
+        <v>0.00060004615469133463</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="B54">
+        <v>6.9869001969057016e-05</v>
+      </c>
+      <c r="C54">
+        <v>0.78210083653362206</v>
+      </c>
+      <c r="D54">
+        <v>0.2178290888171579</v>
+      </c>
+      <c r="E54">
+        <v>2.0564725104428998e-07</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="B55">
+        <v>0.0081587395482066831</v>
+      </c>
+      <c r="C55">
+        <v>0.96871814708103932</v>
+      </c>
+      <c r="D55">
+        <v>0.023123111118654918</v>
+      </c>
+      <c r="E55">
+        <v>2.2520990150300978e-09</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="B56">
+        <v>0.010329170373098863</v>
+      </c>
+      <c r="C56">
+        <v>0.86590186516184897</v>
+      </c>
+      <c r="D56">
+        <v>0.12376895735937464</v>
+      </c>
+      <c r="E56">
+        <v>7.1056776110797252e-09</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="B57">
+        <v>0.00015045278040882003</v>
+      </c>
+      <c r="C57">
+        <v>0.89318563224130265</v>
+      </c>
+      <c r="D57">
+        <v>0.10666387405100027</v>
+      </c>
+      <c r="E57">
+        <v>4.0927288278228875e-08</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="B58">
+        <v>0.00040395198564294654</v>
+      </c>
+      <c r="C58">
+        <v>0.86152221872864387</v>
+      </c>
+      <c r="D58">
+        <v>0.1376695516119556</v>
+      </c>
+      <c r="E58">
+        <v>0.00040427767375765712</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B59">
+        <v>0.0035760968412176554</v>
+      </c>
+      <c r="C59">
+        <v>0.99205813237471852</v>
+      </c>
+      <c r="D59">
+        <v>0.004365770770035575</v>
+      </c>
+      <c r="E59">
+        <v>1.4028215726357782e-11</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="B60">
+        <v>8.7815699789943507e-06</v>
+      </c>
+      <c r="C60">
+        <v>0.8759423701239939</v>
+      </c>
+      <c r="D60">
+        <v>0.12404006900543865</v>
+      </c>
+      <c r="E60">
+        <v>8.7793005884353071e-06</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="B61">
+        <v>0.0020116120995604505</v>
+      </c>
+      <c r="C61">
+        <v>0.00052373539908915072</v>
+      </c>
+      <c r="D61">
+        <v>0.99550829351713122</v>
+      </c>
+      <c r="E61">
+        <v>0.0019563589842191511</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="B62">
+        <v>0.0085288319289618525</v>
+      </c>
+      <c r="C62">
+        <v>0.0089027467310564962</v>
+      </c>
+      <c r="D62">
+        <v>0.97706867018066768</v>
+      </c>
+      <c r="E62">
+        <v>0.0054997511593140608</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="B63">
+        <v>0.26679599544818444</v>
+      </c>
+      <c r="C63">
+        <v>0.032930358660590915</v>
+      </c>
+      <c r="D63">
+        <v>0.60779895133439665</v>
+      </c>
+      <c r="E63">
+        <v>0.092474694556828052</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="B64">
+        <v>0.01374284196840663</v>
+      </c>
+      <c r="C64">
+        <v>0.54084759580576414</v>
+      </c>
+      <c r="D64">
+        <v>0.44540955240032148</v>
+      </c>
+      <c r="E64">
+        <v>9.8255076362988872e-09</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="B65">
+        <v>0.0012777870681602689</v>
+      </c>
+      <c r="C65">
+        <v>0.005057006797669762</v>
+      </c>
+      <c r="D65">
+        <v>0.9935754063392378</v>
+      </c>
+      <c r="E65">
+        <v>8.979979493214413e-05</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="B66">
+        <v>0.0010284391200852503</v>
+      </c>
+      <c r="C66">
+        <v>0.00034935215375732619</v>
+      </c>
+      <c r="D66">
+        <v>0.99862088035940844</v>
+      </c>
+      <c r="E66">
+        <v>1.3283667489716653e-06</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="B67">
+        <v>0.042771089640507041</v>
+      </c>
+      <c r="C67">
+        <v>0.04144140744256216</v>
+      </c>
+      <c r="D67">
+        <v>0.91568252945154205</v>
+      </c>
+      <c r="E67">
+        <v>0.0001049734653887238</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="B68">
+        <v>0.0032717055065615624</v>
+      </c>
+      <c r="C68">
+        <v>0.01309381476912958</v>
+      </c>
+      <c r="D68">
+        <v>0.98316187356215157</v>
+      </c>
+      <c r="E68">
+        <v>0.00047260616215736407</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="B69">
+        <v>0.00019643253105269346</v>
+      </c>
+      <c r="C69">
+        <v>1.4619389389235936e-05</v>
+      </c>
+      <c r="D69">
+        <v>0.99973522011187721</v>
+      </c>
+      <c r="E69">
+        <v>5.3727967680982168e-05</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="B70">
+        <v>0.0014413482296098722</v>
+      </c>
+      <c r="C70">
+        <v>0.00012361878979598437</v>
+      </c>
+      <c r="D70">
+        <v>0.99636463337398851</v>
+      </c>
+      <c r="E70">
+        <v>0.0020703996066056187</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="B71">
+        <v>0.0014801798101381164</v>
+      </c>
+      <c r="C71">
+        <v>0.003641517614291421</v>
+      </c>
+      <c r="D71">
+        <v>0.99485960482451363</v>
+      </c>
+      <c r="E71">
+        <v>1.86977510568038e-05</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="B72">
+        <v>0.017809182149995439</v>
+      </c>
+      <c r="C72">
+        <v>0.0018788161664770788</v>
+      </c>
+      <c r="D72">
+        <v>0.97733268044179722</v>
+      </c>
+      <c r="E72">
+        <v>0.0029793212417302773</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B73">
+        <v>0.0062069729657891195</v>
+      </c>
+      <c r="C73">
+        <v>0.0011396533677213677</v>
+      </c>
+      <c r="D73">
+        <v>0.99120903727292287</v>
+      </c>
+      <c r="E73">
+        <v>0.0014443363935666203</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="B74">
+        <v>0.0019357151782654902</v>
+      </c>
+      <c r="C74">
+        <v>0.015751123046956698</v>
+      </c>
+      <c r="D74">
+        <v>0.97533634205582576</v>
+      </c>
+      <c r="E74">
+        <v>0.0069768197189520823</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="B75">
+        <v>0.0017607586326322136</v>
+      </c>
+      <c r="C75">
+        <v>0.0037089262764411698</v>
+      </c>
+      <c r="D75">
+        <v>0.9943192751021509</v>
+      </c>
+      <c r="E75">
+        <v>0.00021103998877570953</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="B76">
+        <v>0.19704217496075754</v>
+      </c>
+      <c r="C76">
+        <v>0.21152264468906912</v>
+      </c>
+      <c r="D76">
+        <v>0.39011893524829239</v>
+      </c>
+      <c r="E76">
+        <v>0.20131624510188104</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="B77">
+        <v>0.005431869658071682</v>
+      </c>
+      <c r="C77">
+        <v>0.0015186276684027846</v>
+      </c>
+      <c r="D77">
+        <v>0.99217878220079603</v>
+      </c>
+      <c r="E77">
+        <v>0.00087072047272949266</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="B78">
+        <v>0.006334387744176332</v>
+      </c>
+      <c r="C78">
+        <v>0.0082430677311364671</v>
+      </c>
+      <c r="D78">
+        <v>0.98540752569755496</v>
+      </c>
+      <c r="E78">
+        <v>1.5018827132268945e-05</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="B79">
+        <v>0.006871035850009222</v>
+      </c>
+      <c r="C79">
+        <v>0.012077546115559525</v>
+      </c>
+      <c r="D79">
+        <v>0.98070497178659988</v>
+      </c>
+      <c r="E79">
+        <v>0.00034644624783133551</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="B80">
+        <v>0.01695935328377992</v>
+      </c>
+      <c r="C80">
+        <v>0.0013346889979378395</v>
+      </c>
+      <c r="D80">
+        <v>0.97782035676573054</v>
+      </c>
+      <c r="E80">
+        <v>0.0038856009525517553</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="B81">
+        <v>0.0093854773629217774</v>
+      </c>
+      <c r="C81">
+        <v>0.084709385478271088</v>
+      </c>
+      <c r="D81">
+        <v>0.89659917112917287</v>
+      </c>
+      <c r="E81">
+        <v>0.009305966029634221</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="B82">
+        <v>0.0016575534356412754</v>
+      </c>
+      <c r="C82">
+        <v>0.045035420407519733</v>
+      </c>
+      <c r="D82">
+        <v>0.95268273282735005</v>
+      </c>
+      <c r="E82">
+        <v>0.00062429332948899169</v>
+      </c>
+      <c r="F82">
+        <v>3</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="B83">
+        <v>0.01482267659738523</v>
+      </c>
+      <c r="C83">
+        <v>0.012050331350070756</v>
+      </c>
+      <c r="D83">
+        <v>0.96697090468745917</v>
+      </c>
+      <c r="E83">
+        <v>0.0061560873650848835</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B84">
+        <v>0.016081673299531352</v>
+      </c>
+      <c r="C84">
+        <v>0.042216335634627004</v>
+      </c>
+      <c r="D84">
+        <v>0.93481965747522766</v>
+      </c>
+      <c r="E84">
+        <v>0.0068823335906141384</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="B85">
+        <v>0.0015247500813147287</v>
+      </c>
+      <c r="C85">
+        <v>0.0026080304357690058</v>
+      </c>
+      <c r="D85">
+        <v>0.69293800582222853</v>
+      </c>
+      <c r="E85">
+        <v>0.30292921366068781</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="B86">
+        <v>0.00010626563417063534</v>
+      </c>
+      <c r="C86">
+        <v>0.0058887002325741285</v>
+      </c>
+      <c r="D86">
+        <v>0.9786056552637139</v>
+      </c>
+      <c r="E86">
+        <v>0.015399378869541276</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="B87">
+        <v>0.025873179517334231</v>
+      </c>
+      <c r="C87">
+        <v>0.01728027938234061</v>
+      </c>
+      <c r="D87">
+        <v>0.92456859387704915</v>
+      </c>
+      <c r="E87">
+        <v>0.032277947223276003</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="B88">
+        <v>0.0074874449664879064</v>
+      </c>
+      <c r="C88">
+        <v>0.023202486483799471</v>
+      </c>
+      <c r="D88">
+        <v>0.96504903631261485</v>
+      </c>
+      <c r="E88">
+        <v>0.0042610322370976918</v>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="B89">
+        <v>5.2435124830205135e-05</v>
+      </c>
+      <c r="C89">
+        <v>0.0025807496693763267</v>
+      </c>
+      <c r="D89">
+        <v>0.99691583615604207</v>
+      </c>
+      <c r="E89">
+        <v>0.00045097904975138558</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="B90">
+        <v>8.8552306459853657e-05</v>
+      </c>
+      <c r="C90">
+        <v>0.018805986044406437</v>
+      </c>
+      <c r="D90">
+        <v>0.97000048804195438</v>
+      </c>
+      <c r="E90">
+        <v>0.011104973607179372</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="B91">
+        <v>0.00041880535477799042</v>
+      </c>
+      <c r="C91">
+        <v>0.0045218796007848085</v>
+      </c>
+      <c r="D91">
+        <v>0.99505926841309333</v>
+      </c>
+      <c r="E91">
+        <v>4.6631343863214032e-08</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="G91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="B92">
+        <v>0.0014056112642688416</v>
+      </c>
+      <c r="C92">
+        <v>0.00015377596544714691</v>
+      </c>
+      <c r="D92">
+        <v>0.99844061264706707</v>
+      </c>
+      <c r="E92">
+        <v>1.2321698901938201e-10</v>
+      </c>
+      <c r="F92">
+        <v>3</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="B93">
+        <v>0.033699246485406183</v>
+      </c>
+      <c r="C93">
+        <v>0.04425662538621368</v>
+      </c>
+      <c r="D93">
+        <v>0.92204407687418133</v>
+      </c>
+      <c r="E93">
+        <v>5.1254198864935968e-08</v>
+      </c>
+      <c r="F93">
+        <v>3</v>
+      </c>
+      <c r="G93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="B94">
+        <v>0.0073230988902074044</v>
+      </c>
+      <c r="C94">
+        <v>0.011083865761031497</v>
+      </c>
+      <c r="D94">
+        <v>0.98159284723063955</v>
+      </c>
+      <c r="E94">
+        <v>1.8811812158674436e-07</v>
+      </c>
+      <c r="F94">
+        <v>3</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="B95">
+        <v>0.010084892427507694</v>
+      </c>
+      <c r="C95">
+        <v>0.0053998901472670181</v>
+      </c>
+      <c r="D95">
+        <v>0.9845151597177052</v>
+      </c>
+      <c r="E95">
+        <v>5.7707520100515681e-08</v>
+      </c>
+      <c r="F95">
+        <v>3</v>
+      </c>
+      <c r="G95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B96">
+        <v>0.10802282747732071</v>
+      </c>
+      <c r="C96">
+        <v>0.00091314319680727571</v>
+      </c>
+      <c r="D96">
+        <v>0.8910640270150747</v>
+      </c>
+      <c r="E96">
+        <v>2.3107972273436313e-09</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+      <c r="G96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="B97">
+        <v>0.042714876413055047</v>
+      </c>
+      <c r="C97">
+        <v>0.0056165449718371995</v>
+      </c>
+      <c r="D97">
+        <v>0.95165719859517528</v>
+      </c>
+      <c r="E97">
+        <v>1.1380019932561614e-05</v>
+      </c>
+      <c r="F97">
+        <v>3</v>
+      </c>
+      <c r="G97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="B98">
+        <v>0.012107852144330888</v>
+      </c>
+      <c r="C98">
+        <v>0.03095385345049436</v>
+      </c>
+      <c r="D98">
+        <v>0.956929105862519</v>
+      </c>
+      <c r="E98">
+        <v>9.1885426556356004e-06</v>
+      </c>
+      <c r="F98">
+        <v>3</v>
+      </c>
+      <c r="G98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="B99">
+        <v>0.03250642695494229</v>
+      </c>
+      <c r="C99">
+        <v>0.0021901116676976986</v>
+      </c>
+      <c r="D99">
+        <v>0.96524007283673674</v>
+      </c>
+      <c r="E99">
+        <v>6.3388540623182665e-05</v>
+      </c>
+      <c r="F99">
+        <v>3</v>
+      </c>
+      <c r="G99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="B100">
+        <v>0.020899960795963821</v>
+      </c>
+      <c r="C100">
+        <v>0.054019444735757802</v>
+      </c>
+      <c r="D100">
+        <v>0.92505463637023688</v>
+      </c>
+      <c r="E100">
+        <v>2.5958098041300753e-05</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="B101">
+        <v>0.00019249481299495863</v>
+      </c>
+      <c r="C101">
+        <v>0.067626749772221731</v>
+      </c>
+      <c r="D101">
+        <v>0.93218075263021394</v>
+      </c>
+      <c r="E101">
+        <v>2.7845692870673837e-09</v>
+      </c>
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="G101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="B102">
+        <v>0.0094958874182717503</v>
+      </c>
+      <c r="C102">
+        <v>0.0075715824316023271</v>
+      </c>
+      <c r="D102">
+        <v>0.98292320454703608</v>
+      </c>
+      <c r="E102">
+        <v>9.3256030898571167e-06</v>
+      </c>
+      <c r="F102">
+        <v>3</v>
+      </c>
+      <c r="G102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="B103">
+        <v>0.047447892458695226</v>
+      </c>
+      <c r="C103">
+        <v>0.0024104395350582142</v>
+      </c>
+      <c r="D103">
+        <v>0.95014070666599526</v>
+      </c>
+      <c r="E103">
+        <v>9.6134025122126027e-07</v>
+      </c>
+      <c r="F103">
+        <v>3</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="B104">
+        <v>0.0096152310866306628</v>
+      </c>
+      <c r="C104">
+        <v>0.00098208882124747399</v>
+      </c>
+      <c r="D104">
+        <v>0.98940088827934236</v>
+      </c>
+      <c r="E104">
+        <v>1.7918127794441627e-06</v>
+      </c>
+      <c r="F104">
+        <v>3</v>
+      </c>
+      <c r="G104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="B105">
+        <v>0.011255698415134918</v>
+      </c>
+      <c r="C105">
+        <v>0.0043246056402952999</v>
+      </c>
+      <c r="D105">
+        <v>0.98441948068482765</v>
+      </c>
+      <c r="E105">
+        <v>2.1525974207629586e-07</v>
+      </c>
+      <c r="F105">
+        <v>3</v>
+      </c>
+      <c r="G105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="B106">
+        <v>0.0082170923071411064</v>
+      </c>
+      <c r="C106">
+        <v>0.023210963452365306</v>
+      </c>
+      <c r="D106">
+        <v>0.96856268402176515</v>
+      </c>
+      <c r="E106">
+        <v>9.2602187285953363e-06</v>
+      </c>
+      <c r="F106">
+        <v>3</v>
+      </c>
+      <c r="G106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="B107">
+        <v>0.055638873679356105</v>
+      </c>
+      <c r="C107">
+        <v>0.0009746809943889977</v>
+      </c>
+      <c r="D107">
+        <v>0.94338610197886819</v>
+      </c>
+      <c r="E107">
+        <v>3.4334738658910316e-07</v>
+      </c>
+      <c r="F107">
+        <v>3</v>
+      </c>
+      <c r="G107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="B108">
+        <v>0.11572341521346641</v>
+      </c>
+      <c r="C108">
+        <v>0.30102119409125022</v>
+      </c>
+      <c r="D108">
+        <v>0.58313850314869298</v>
+      </c>
+      <c r="E108">
+        <v>0.00011688754659037689</v>
+      </c>
+      <c r="F108">
+        <v>3</v>
+      </c>
+      <c r="G108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="B109">
+        <v>0.0041567950741458132</v>
+      </c>
+      <c r="C109">
+        <v>0.14651780367944631</v>
+      </c>
+      <c r="D109">
+        <v>0.84459279355898886</v>
+      </c>
+      <c r="E109">
+        <v>0.0047326076874190737</v>
+      </c>
+      <c r="F109">
+        <v>3</v>
+      </c>
+      <c r="G109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="B110">
+        <v>0.00062312015671576928</v>
+      </c>
+      <c r="C110">
+        <v>0.37396824437376419</v>
+      </c>
+      <c r="D110">
+        <v>0.62540436402734589</v>
+      </c>
+      <c r="E110">
+        <v>4.2714421742114222e-06</v>
+      </c>
+      <c r="F110">
+        <v>3</v>
+      </c>
+      <c r="G110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="B111">
+        <v>0.0022105076071315308</v>
+      </c>
+      <c r="C111">
+        <v>0.095827571159964056</v>
+      </c>
+      <c r="D111">
+        <v>0.88349179633560693</v>
+      </c>
+      <c r="E111">
+        <v>0.01847012489729765</v>
+      </c>
+      <c r="F111">
+        <v>3</v>
+      </c>
+      <c r="G111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="B112">
+        <v>0.0026296811700895397</v>
+      </c>
+      <c r="C112">
+        <v>0.00076174932112317399</v>
+      </c>
+      <c r="D112">
+        <v>0.99659443859859009</v>
+      </c>
+      <c r="E112">
+        <v>1.4130910197208936e-05</v>
+      </c>
+      <c r="F112">
+        <v>3</v>
+      </c>
+      <c r="G112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="B113">
+        <v>0.012688361308091306</v>
+      </c>
+      <c r="C113">
+        <v>0.0035414695200178302</v>
+      </c>
+      <c r="D113">
+        <v>0.98376112070570532</v>
+      </c>
+      <c r="E113">
+        <v>9.0484661855839398e-06</v>
+      </c>
+      <c r="F113">
+        <v>3</v>
+      </c>
+      <c r="G113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="B114">
+        <v>0.052768685725528772</v>
+      </c>
+      <c r="C114">
+        <v>0.017185600832436251</v>
+      </c>
+      <c r="D114">
+        <v>0.92991403949287665</v>
+      </c>
+      <c r="E114">
+        <v>0.00013167394915838073</v>
+      </c>
+      <c r="F114">
+        <v>3</v>
+      </c>
+      <c r="G114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="B115">
+        <v>0.012617954109906716</v>
+      </c>
+      <c r="C115">
+        <v>0.001916833281752573</v>
+      </c>
+      <c r="D115">
+        <v>0.98545161650687896</v>
+      </c>
+      <c r="E115">
+        <v>1.3596101461809244e-05</v>
+      </c>
+      <c r="F115">
+        <v>3</v>
+      </c>
+      <c r="G115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="B116">
+        <v>0.0086233880092571897</v>
+      </c>
+      <c r="C116">
+        <v>6.6064156645339694e-05</v>
+      </c>
+      <c r="D116">
+        <v>0.99131040755508726</v>
+      </c>
+      <c r="E116">
+        <v>1.4027901021810711e-07</v>
+      </c>
+      <c r="F116">
+        <v>3</v>
+      </c>
+      <c r="G116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="B117">
+        <v>0.030664320560501519</v>
+      </c>
+      <c r="C117">
+        <v>0.0014735073970372815</v>
+      </c>
+      <c r="D117">
+        <v>0.967862117928599</v>
+      </c>
+      <c r="E117">
+        <v>5.4113862213935296e-08</v>
+      </c>
+      <c r="F117">
+        <v>3</v>
+      </c>
+      <c r="G117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="B118">
+        <v>0.01308837534524685</v>
+      </c>
+      <c r="C118">
+        <v>0.00033974892785590752</v>
+      </c>
+      <c r="D118">
+        <v>0.98649180916427515</v>
+      </c>
+      <c r="E118">
+        <v>8.0066562622149907e-05</v>
+      </c>
+      <c r="F118">
+        <v>3</v>
+      </c>
+      <c r="G118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="B119">
+        <v>0.0065200997533458576</v>
+      </c>
+      <c r="C119">
+        <v>0.09193794402141231</v>
+      </c>
+      <c r="D119">
+        <v>0.90062402177834899</v>
+      </c>
+      <c r="E119">
+        <v>0.0009179344468928074</v>
+      </c>
+      <c r="F119">
+        <v>3</v>
+      </c>
+      <c r="G119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="B120">
+        <v>0.010765514975300764</v>
+      </c>
+      <c r="C120">
+        <v>0.014657784436584194</v>
+      </c>
+      <c r="D120">
+        <v>0.97025212997191934</v>
+      </c>
+      <c r="E120">
+        <v>0.0043245706161956212</v>
+      </c>
+      <c r="F120">
+        <v>3</v>
+      </c>
+      <c r="G120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="B121">
+        <v>0.038259715938505322</v>
+      </c>
+      <c r="C121">
+        <v>0.0035087163388256353</v>
+      </c>
+      <c r="D121">
+        <v>0.9577613481917111</v>
+      </c>
+      <c r="E121">
+        <v>0.0004702195309579108</v>
+      </c>
+      <c r="F121">
+        <v>3</v>
+      </c>
+      <c r="G121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="B122">
+        <v>0.018472075758265798</v>
+      </c>
+      <c r="C122">
+        <v>0.043958292303782301</v>
+      </c>
+      <c r="D122">
+        <v>0.93754598497148944</v>
+      </c>
+      <c r="E122">
+        <v>2.3646966462418731e-05</v>
+      </c>
+      <c r="F122">
+        <v>3</v>
+      </c>
+      <c r="G122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="B123">
+        <v>0.0076950367243520789</v>
+      </c>
+      <c r="C123">
+        <v>0.00069888470369406394</v>
+      </c>
+      <c r="D123">
+        <v>0.99160014396476093</v>
+      </c>
+      <c r="E123">
+        <v>5.9346071931169778e-06</v>
+      </c>
+      <c r="F123">
+        <v>3</v>
+      </c>
+      <c r="G123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="B124">
+        <v>0.017419838901882444</v>
+      </c>
+      <c r="C124">
+        <v>0.00016752796021117993</v>
+      </c>
+      <c r="D124">
+        <v>0.98239536584790499</v>
+      </c>
+      <c r="E124">
+        <v>1.726729000132752e-05</v>
+      </c>
+      <c r="F124">
+        <v>3</v>
+      </c>
+      <c r="G124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="B125">
+        <v>0.088676594871296144</v>
+      </c>
+      <c r="C125">
+        <v>0.15578794037820218</v>
+      </c>
+      <c r="D125">
+        <v>0.75553542021292408</v>
+      </c>
+      <c r="E125">
+        <v>4.4537577524525886e-08</v>
+      </c>
+      <c r="F125">
+        <v>3</v>
+      </c>
+      <c r="G125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="B126">
+        <v>0.073177427944168094</v>
+      </c>
+      <c r="C126">
+        <v>0.21668721204496622</v>
+      </c>
+      <c r="D126">
+        <v>0.70970605834346778</v>
+      </c>
+      <c r="E126">
+        <v>0.00042930166739771195</v>
+      </c>
+      <c r="F126">
+        <v>3</v>
+      </c>
+      <c r="G126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="B127">
+        <v>0.0065561306547979028</v>
+      </c>
+      <c r="C127">
+        <v>0.093926184345295274</v>
+      </c>
+      <c r="D127">
+        <v>0.89892813276096983</v>
+      </c>
+      <c r="E127">
+        <v>0.00058955223893693222</v>
+      </c>
+      <c r="F127">
+        <v>3</v>
+      </c>
+      <c r="G127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="B128">
+        <v>0.21559971414603157</v>
+      </c>
+      <c r="C128">
+        <v>0.21651619654113657</v>
+      </c>
+      <c r="D128">
+        <v>0.56081420112749325</v>
+      </c>
+      <c r="E128">
+        <v>0.0070698881853386393</v>
+      </c>
+      <c r="F128">
+        <v>3</v>
+      </c>
+      <c r="G128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B129">
+        <v>0.00021933076673549807</v>
+      </c>
+      <c r="C129">
+        <v>0.00055781570866920483</v>
+      </c>
+      <c r="D129">
+        <v>0.9992183555426325</v>
+      </c>
+      <c r="E129">
+        <v>4.4979819626974778e-06</v>
+      </c>
+      <c r="F129">
+        <v>3</v>
+      </c>
+      <c r="G129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="B130">
+        <v>0.022328099309602441</v>
+      </c>
+      <c r="C130">
+        <v>0.058197354989936154</v>
+      </c>
+      <c r="D130">
+        <v>0.91947274220546305</v>
+      </c>
+      <c r="E130">
+        <v>1.8034949984410247e-06</v>
+      </c>
+      <c r="F130">
+        <v>3</v>
+      </c>
+      <c r="G130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="B131">
+        <v>0.0014630336640898281</v>
+      </c>
+      <c r="C131">
+        <v>0.0024718995839243078</v>
+      </c>
+      <c r="D131">
+        <v>0.99606314828763864</v>
+      </c>
+      <c r="E131">
+        <v>1.9184643471933051e-06</v>
+      </c>
+      <c r="F131">
+        <v>3</v>
+      </c>
+      <c r="G131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="B132">
+        <v>0.0070743238313383172</v>
+      </c>
+      <c r="C132">
+        <v>0.00044853815848390418</v>
+      </c>
+      <c r="D132">
+        <v>0.99172381250100161</v>
+      </c>
+      <c r="E132">
+        <v>0.00075332550917623004</v>
+      </c>
+      <c r="F132">
+        <v>3</v>
+      </c>
+      <c r="G132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="B133">
+        <v>0.0035674974042323566</v>
+      </c>
+      <c r="C133">
+        <v>0.0073016095123293687</v>
+      </c>
+      <c r="D133">
+        <v>0.98905298137405295</v>
+      </c>
+      <c r="E133">
+        <v>7.7911709385343253e-05</v>
+      </c>
+      <c r="F133">
+        <v>3</v>
+      </c>
+      <c r="G133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="B134">
+        <v>0.007923687791716599</v>
+      </c>
+      <c r="C134">
+        <v>0.12493118590691028</v>
+      </c>
+      <c r="D134">
+        <v>0.86449274717587243</v>
+      </c>
+      <c r="E134">
+        <v>0.002652379125500641</v>
+      </c>
+      <c r="F134">
+        <v>3</v>
+      </c>
+      <c r="G134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="B135">
+        <v>0.027743907998628255</v>
+      </c>
+      <c r="C135">
+        <v>0.03746909403446215</v>
+      </c>
+      <c r="D135">
+        <v>0.91829820939053752</v>
+      </c>
+      <c r="E135">
+        <v>0.016488788576371906</v>
+      </c>
+      <c r="F135">
+        <v>3</v>
+      </c>
+      <c r="G135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="B136">
+        <v>0.0094678603885603209</v>
+      </c>
+      <c r="C136">
+        <v>0.12169429863554077</v>
+      </c>
+      <c r="D136">
+        <v>0.86816498266924336</v>
+      </c>
+      <c r="E136">
+        <v>0.00067285830665557878</v>
+      </c>
+      <c r="F136">
+        <v>3</v>
+      </c>
+      <c r="G136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="B137">
+        <v>0.003415157578479185</v>
+      </c>
+      <c r="C137">
+        <v>0.35900565745550578</v>
+      </c>
+      <c r="D137">
+        <v>0.62314536692300049</v>
+      </c>
+      <c r="E137">
+        <v>0.014433818043014641</v>
+      </c>
+      <c r="F137">
+        <v>3</v>
+      </c>
+      <c r="G137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B138">
+        <v>0.021897363961588222</v>
+      </c>
+      <c r="C138">
+        <v>0.18610182441421272</v>
+      </c>
+      <c r="D138">
+        <v>0.79128838659309264</v>
+      </c>
+      <c r="E138">
+        <v>0.00071242503110638454</v>
+      </c>
+      <c r="F138">
+        <v>3</v>
+      </c>
+      <c r="G138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="B139">
+        <v>0.00011448819453457322</v>
+      </c>
+      <c r="C139">
+        <v>0.024463984616860401</v>
+      </c>
+      <c r="D139">
+        <v>0.97542117054915656</v>
+      </c>
+      <c r="E139">
+        <v>3.5663944847922457e-07</v>
+      </c>
+      <c r="F139">
+        <v>3</v>
+      </c>
+      <c r="G139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="B140">
+        <v>0.00069272491247294131</v>
+      </c>
+      <c r="C140">
+        <v>0.084232141347984735</v>
+      </c>
+      <c r="D140">
+        <v>0.91504660766237245</v>
+      </c>
+      <c r="E140">
+        <v>2.8526077169953585e-05</v>
+      </c>
+      <c r="F140">
+        <v>3</v>
+      </c>
+      <c r="G140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="B141">
+        <v>0.00092438646071677975</v>
+      </c>
+      <c r="C141">
+        <v>0.074358294384789719</v>
+      </c>
+      <c r="D141">
+        <v>0.92449002368896194</v>
+      </c>
+      <c r="E141">
+        <v>0.0002272954655315613</v>
+      </c>
+      <c r="F141">
+        <v>3</v>
+      </c>
+      <c r="G141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="B142">
+        <v>0.034465560758193133</v>
+      </c>
+      <c r="C142">
+        <v>0.0081311241640530368</v>
+      </c>
+      <c r="D142">
+        <v>0.95679501839274028</v>
+      </c>
+      <c r="E142">
+        <v>0.00060829668501350439</v>
+      </c>
+      <c r="F142">
+        <v>3</v>
+      </c>
+      <c r="G142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="B143">
+        <v>0.10148444839930619</v>
+      </c>
+      <c r="C143">
+        <v>0.00013182054081366313</v>
+      </c>
+      <c r="D143">
+        <v>0.89838348429683723</v>
+      </c>
+      <c r="E143">
+        <v>2.4676304302113161e-07</v>
+      </c>
+      <c r="F143">
+        <v>3</v>
+      </c>
+      <c r="G143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="B144">
+        <v>0.0011721441067254301</v>
+      </c>
+      <c r="C144">
+        <v>0.0064111925564860634</v>
+      </c>
+      <c r="D144">
+        <v>0.99241368001620367</v>
+      </c>
+      <c r="E144">
+        <v>2.9833205847682445e-06</v>
+      </c>
+      <c r="F144">
+        <v>3</v>
+      </c>
+      <c r="G144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="B145">
+        <v>0.023584211222898645</v>
+      </c>
+      <c r="C145">
+        <v>0.037238205331006434</v>
+      </c>
+      <c r="D145">
+        <v>0.93916728150893747</v>
+      </c>
+      <c r="E145">
+        <v>1.030193715742572e-05</v>
+      </c>
+      <c r="F145">
+        <v>3</v>
+      </c>
+      <c r="G145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="B146">
+        <v>0.026925017873860337</v>
+      </c>
+      <c r="C146">
+        <v>0.02382334667316648</v>
+      </c>
+      <c r="D146">
+        <v>0.94921604457495956</v>
+      </c>
+      <c r="E146">
+        <v>3.5590878013662728e-05</v>
+      </c>
+      <c r="F146">
+        <v>3</v>
+      </c>
+      <c r="G146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="B147">
+        <v>0.014731242368788852</v>
+      </c>
+      <c r="C147">
+        <v>0.053397192299763377</v>
+      </c>
+      <c r="D147">
+        <v>0.93056643954808005</v>
+      </c>
+      <c r="E147">
+        <v>0.0013051257833678353</v>
+      </c>
+      <c r="F147">
+        <v>3</v>
+      </c>
+      <c r="G147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="B148">
+        <v>0.096064337572160513</v>
+      </c>
+      <c r="C148">
+        <v>0.11301099083143712</v>
+      </c>
+      <c r="D148">
+        <v>0.78188327819548187</v>
+      </c>
+      <c r="E148">
+        <v>0.0090413934009204704</v>
+      </c>
+      <c r="F148">
+        <v>3</v>
+      </c>
+      <c r="G148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="B149">
+        <v>0.008625749426942185</v>
+      </c>
+      <c r="C149">
+        <v>0.00014063775769651275</v>
+      </c>
+      <c r="D149">
+        <v>0.99123361281521405</v>
+      </c>
+      <c r="E149">
+        <v>1.4729449656442608e-13</v>
+      </c>
+      <c r="F149">
+        <v>3</v>
+      </c>
+      <c r="G149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="B150">
+        <v>0.01559073386874487</v>
+      </c>
+      <c r="C150">
+        <v>0.013507318245870804</v>
+      </c>
+      <c r="D150">
+        <v>0.97090194767565174</v>
+      </c>
+      <c r="E150">
+        <v>2.0973253599517198e-10</v>
+      </c>
+      <c r="F150">
+        <v>3</v>
+      </c>
+      <c r="G150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="B151">
+        <v>0.006388018933915076</v>
+      </c>
+      <c r="C151">
+        <v>0.032370928682850214</v>
+      </c>
+      <c r="D151">
+        <v>0.9611695527050701</v>
+      </c>
+      <c r="E151">
+        <v>7.1499678164553269e-05</v>
+      </c>
+      <c r="F151">
+        <v>3</v>
+      </c>
+      <c r="G151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="B152">
+        <v>0.0039956594448110417</v>
+      </c>
+      <c r="C152">
+        <v>0.01245769664407897</v>
+      </c>
+      <c r="D152">
+        <v>0.98354664386641766</v>
+      </c>
+      <c r="E152">
+        <v>4.4692317397428247e-11</v>
+      </c>
+      <c r="F152">
+        <v>3</v>
+      </c>
+      <c r="G152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="B153">
+        <v>0.011617169153702197</v>
+      </c>
+      <c r="C153">
+        <v>0.00046348522315143133</v>
+      </c>
+      <c r="D153">
+        <v>0.98791934551589167</v>
+      </c>
+      <c r="E153">
+        <v>1.0725473413389537e-10</v>
+      </c>
+      <c r="F153">
+        <v>3</v>
+      </c>
+      <c r="G153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="B154">
+        <v>0.0059763221007321987</v>
+      </c>
+      <c r="C154">
+        <v>0.0055029777007411934</v>
+      </c>
+      <c r="D154">
+        <v>0.98852069910467377</v>
+      </c>
+      <c r="E154">
+        <v>1.093852782065309e-09</v>
+      </c>
+      <c r="F154">
+        <v>3</v>
+      </c>
+      <c r="G154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="B155">
+        <v>0.04798000152532219</v>
+      </c>
+      <c r="C155">
+        <v>0.0046892804121678308</v>
+      </c>
+      <c r="D155">
+        <v>0.94733071806226321</v>
+      </c>
+      <c r="E155">
+        <v>2.4673203968093385e-13</v>
+      </c>
+      <c r="F155">
+        <v>3</v>
+      </c>
+      <c r="G155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="B156">
+        <v>0.02210158157218459</v>
+      </c>
+      <c r="C156">
+        <v>0.0021466985279120134</v>
+      </c>
+      <c r="D156">
+        <v>0.97575171870549593</v>
+      </c>
+      <c r="E156">
+        <v>1.1944075089558442e-09</v>
+      </c>
+      <c r="F156">
+        <v>3</v>
+      </c>
+      <c r="G156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="B157">
+        <v>0.015041791451779842</v>
+      </c>
+      <c r="C157">
+        <v>0.00013179075279448428</v>
+      </c>
+      <c r="D157">
+        <v>0.9848264177939654</v>
+      </c>
+      <c r="E157">
+        <v>1.4603681028111704e-12</v>
+      </c>
+      <c r="F157">
+        <v>3</v>
+      </c>
+      <c r="G157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="B158">
+        <v>0.00094074458768780573</v>
+      </c>
+      <c r="C158">
+        <v>0.065873604505719788</v>
+      </c>
+      <c r="D158">
+        <v>0.9331852085720167</v>
+      </c>
+      <c r="E158">
+        <v>4.423345756548986e-07</v>
+      </c>
+      <c r="F158">
+        <v>3</v>
+      </c>
+      <c r="G158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="B159">
+        <v>0.094619209328867221</v>
+      </c>
+      <c r="C159">
+        <v>0.0046986193349200997</v>
+      </c>
+      <c r="D159">
+        <v>0.9006821710781453</v>
+      </c>
+      <c r="E159">
+        <v>2.5806753099651449e-10</v>
+      </c>
+      <c r="F159">
+        <v>3</v>
+      </c>
+      <c r="G159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B160">
+        <v>0.014611446422389009</v>
+      </c>
+      <c r="C160">
+        <v>0.028740714361227316</v>
+      </c>
+      <c r="D160">
+        <v>0.95664783903382666</v>
+      </c>
+      <c r="E160">
+        <v>1.8255702905601336e-10</v>
+      </c>
+      <c r="F160">
+        <v>3</v>
+      </c>
+      <c r="G160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="B161">
+        <v>0.0039101637934269764</v>
+      </c>
+      <c r="C161">
+        <v>0.047383183316480129</v>
+      </c>
+      <c r="D161">
+        <v>0.94870662249023341</v>
+      </c>
+      <c r="E161">
+        <v>3.0399859523070842e-08</v>
+      </c>
+      <c r="F161">
+        <v>3</v>
+      </c>
+      <c r="G161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="B162">
+        <v>0.092706610409605497</v>
+      </c>
+      <c r="C162">
+        <v>0.07779854217822231</v>
+      </c>
+      <c r="D162">
+        <v>0.82949473200468959</v>
+      </c>
+      <c r="E162">
+        <v>1.154074823888998e-07</v>
+      </c>
+      <c r="F162">
+        <v>3</v>
+      </c>
+      <c r="G162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="B163">
+        <v>0.018420271851368884</v>
+      </c>
+      <c r="C163">
+        <v>0.045621255071266492</v>
+      </c>
+      <c r="D163">
+        <v>0.93595846383701575</v>
+      </c>
+      <c r="E163">
+        <v>9.2403488350182717e-09</v>
+      </c>
+      <c r="F163">
+        <v>3</v>
+      </c>
+      <c r="G163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="B164">
+        <v>0.26786783057219471</v>
+      </c>
+      <c r="C164">
+        <v>0.2228705823081332</v>
+      </c>
+      <c r="D164">
+        <v>0.5092615458514187</v>
+      </c>
+      <c r="E164">
+        <v>4.1268253490829878e-08</v>
+      </c>
+      <c r="F164">
+        <v>3</v>
+      </c>
+      <c r="G164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="B165">
+        <v>0.0021941202695248481</v>
+      </c>
+      <c r="C165">
+        <v>0.24773639706189973</v>
+      </c>
+      <c r="D165">
+        <v>0.75006829374960526</v>
+      </c>
+      <c r="E165">
+        <v>1.1889189700809697e-06</v>
+      </c>
+      <c r="F165">
+        <v>3</v>
+      </c>
+      <c r="G165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="B166">
+        <v>0.0012308073244568043</v>
+      </c>
+      <c r="C166">
+        <v>0.00046491936218326759</v>
+      </c>
+      <c r="D166">
+        <v>0.99830427319950743</v>
+      </c>
+      <c r="E166">
+        <v>1.1385252676895281e-10</v>
+      </c>
+      <c r="F166">
+        <v>3</v>
+      </c>
+      <c r="G166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="B167">
+        <v>0.21389481313016037</v>
+      </c>
+      <c r="C167">
+        <v>0.22183087999486928</v>
+      </c>
+      <c r="D167">
+        <v>0.39098770777915304</v>
+      </c>
+      <c r="E167">
+        <v>0.1732865990958174</v>
+      </c>
+      <c r="F167">
+        <v>3</v>
+      </c>
+      <c r="G167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B168">
+        <v>0.0008385008981118883</v>
+      </c>
+      <c r="C168">
+        <v>0.0007203995930088028</v>
+      </c>
+      <c r="D168">
+        <v>0.036724569592014381</v>
+      </c>
+      <c r="E168">
+        <v>0.96171652991686485</v>
+      </c>
+      <c r="F168">
+        <v>4</v>
+      </c>
+      <c r="G168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="B169">
+        <v>0.0049576521853610589</v>
+      </c>
+      <c r="C169">
+        <v>0.00027677466340113782</v>
+      </c>
+      <c r="D169">
+        <v>0.0065621734484842108</v>
+      </c>
+      <c r="E169">
+        <v>0.9882033997027535</v>
+      </c>
+      <c r="F169">
+        <v>4</v>
+      </c>
+      <c r="G169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="B170">
+        <v>0.031628815250171465</v>
+      </c>
+      <c r="C170">
+        <v>6.9521824400532839e-05</v>
+      </c>
+      <c r="D170">
+        <v>0.0015637869725681989</v>
+      </c>
+      <c r="E170">
+        <v>0.96673787595285976</v>
+      </c>
+      <c r="F170">
+        <v>4</v>
+      </c>
+      <c r="G170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="B171">
+        <v>0.013995927307845015</v>
+      </c>
+      <c r="C171">
+        <v>0.00056485846958425517</v>
+      </c>
+      <c r="D171">
+        <v>0.0067388213500244884</v>
+      </c>
+      <c r="E171">
+        <v>0.97870039287254629</v>
+      </c>
+      <c r="F171">
+        <v>4</v>
+      </c>
+      <c r="G171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="B172">
+        <v>0.0016457574280118797</v>
+      </c>
+      <c r="C172">
+        <v>0.016932171207073195</v>
+      </c>
+      <c r="D172">
+        <v>0.0062995385068179552</v>
+      </c>
+      <c r="E172">
+        <v>0.97512253285809691</v>
+      </c>
+      <c r="F172">
+        <v>4</v>
+      </c>
+      <c r="G172">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B173">
+        <v>0.0022845172095865636</v>
+      </c>
+      <c r="C173">
+        <v>0.004932517944941193</v>
+      </c>
+      <c r="D173">
+        <v>0.21567913688240928</v>
+      </c>
+      <c r="E173">
+        <v>0.77710382796306299</v>
+      </c>
+      <c r="F173">
+        <v>4</v>
+      </c>
+      <c r="G173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="B174">
+        <v>0.0001272927171951646</v>
+      </c>
+      <c r="C174">
+        <v>0.00012369125640421513</v>
+      </c>
+      <c r="D174">
+        <v>0.0095852463484098691</v>
+      </c>
+      <c r="E174">
+        <v>0.99016376967799069</v>
+      </c>
+      <c r="F174">
+        <v>4</v>
+      </c>
+      <c r="G174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="B175">
+        <v>0.00026043801504924201</v>
+      </c>
+      <c r="C175">
+        <v>0.0033753117737433452</v>
+      </c>
+      <c r="D175">
+        <v>0.029023110039878296</v>
+      </c>
+      <c r="E175">
+        <v>0.96734114017132922</v>
+      </c>
+      <c r="F175">
+        <v>4</v>
+      </c>
+      <c r="G175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="B176">
+        <v>2.8416615924986514e-05</v>
+      </c>
+      <c r="C176">
+        <v>0.0036506437370844836</v>
+      </c>
+      <c r="D176">
+        <v>0.43314548552280285</v>
+      </c>
+      <c r="E176">
+        <v>0.56317545412418768</v>
+      </c>
+      <c r="F176">
+        <v>4</v>
+      </c>
+      <c r="G176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="B177">
+        <v>5.2290735009213455e-05</v>
+      </c>
+      <c r="C177">
+        <v>5.3262914281984674e-05</v>
+      </c>
+      <c r="D177">
+        <v>0.071163912199221649</v>
+      </c>
+      <c r="E177">
+        <v>0.92873053415148721</v>
+      </c>
+      <c r="F177">
+        <v>4</v>
+      </c>
+      <c r="G177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="B178">
+        <v>0.018592462675356015</v>
+      </c>
+      <c r="C178">
+        <v>0.00046641323588984471</v>
+      </c>
+      <c r="D178">
+        <v>0.00045311620107999287</v>
+      </c>
+      <c r="E178">
+        <v>0.9804880078876741</v>
+      </c>
+      <c r="F178">
+        <v>4</v>
+      </c>
+      <c r="G178">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="B179">
+        <v>0.00023088020965593168</v>
+      </c>
+      <c r="C179">
+        <v>0.00024248399437812836</v>
+      </c>
+      <c r="D179">
+        <v>0.05107670264453236</v>
+      </c>
+      <c r="E179">
+        <v>0.94844993315143356</v>
+      </c>
+      <c r="F179">
+        <v>4</v>
+      </c>
+      <c r="G179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="B180">
+        <v>0.00058653819345062797</v>
+      </c>
+      <c r="C180">
+        <v>0.0043160577546620454</v>
+      </c>
+      <c r="D180">
+        <v>0.056088665661726163</v>
+      </c>
+      <c r="E180">
+        <v>0.93900873839016119</v>
+      </c>
+      <c r="F180">
+        <v>4</v>
+      </c>
+      <c r="G180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="B181">
+        <v>0.00011297796027383784</v>
+      </c>
+      <c r="C181">
+        <v>0.0021595946236252868</v>
+      </c>
+      <c r="D181">
+        <v>0.037211626025595593</v>
+      </c>
+      <c r="E181">
+        <v>0.9605158013905053</v>
+      </c>
+      <c r="F181">
+        <v>4</v>
+      </c>
+      <c r="G181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="B182">
+        <v>0.00034487191232553967</v>
+      </c>
+      <c r="C182">
+        <v>0.00031279425862272602</v>
+      </c>
+      <c r="D182">
+        <v>0.013156666339720116</v>
+      </c>
+      <c r="E182">
+        <v>0.98618566748933156</v>
+      </c>
+      <c r="F182">
+        <v>4</v>
+      </c>
+      <c r="G182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="B183">
+        <v>5.3988002203211394e-05</v>
+      </c>
+      <c r="C183">
+        <v>5.3833111917588388e-05</v>
+      </c>
+      <c r="D183">
+        <v>0.081055939694615636</v>
+      </c>
+      <c r="E183">
+        <v>0.91883623919126356</v>
+      </c>
+      <c r="F183">
+        <v>4</v>
+      </c>
+      <c r="G183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="B184">
+        <v>0.091856808794468711</v>
+      </c>
+      <c r="C184">
+        <v>0.15573221604418166</v>
+      </c>
+      <c r="D184">
+        <v>0.62581281959135648</v>
+      </c>
+      <c r="E184">
+        <v>0.12659815556999313</v>
+      </c>
+      <c r="F184">
+        <v>3</v>
+      </c>
+      <c r="G184">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G183"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="4" max="4" width="14.7109375" customWidth="true"/>
+    <col min="5" max="5" width="15.7109375" customWidth="true"/>
+    <col min="6" max="6" width="10.28515625" customWidth="true"/>
+    <col min="7" max="7" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="B2">
+        <v>0.91692375712791296</v>
+      </c>
+      <c r="C2">
+        <v>4.8171031118618658e-05</v>
+      </c>
+      <c r="D2">
+        <v>0.082980696946058877</v>
+      </c>
+      <c r="E2">
+        <v>4.7374894909601668e-05</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="B3">
+        <v>0.93895479010383787</v>
+      </c>
+      <c r="C3">
+        <v>0.0085161095363618117</v>
+      </c>
+      <c r="D3">
+        <v>0.05252867187825503</v>
+      </c>
+      <c r="E3">
+        <v>4.2848154538637194e-07</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="B4">
+        <v>0.8023358323090759</v>
+      </c>
+      <c r="C4">
+        <v>0.0014709012057273088</v>
+      </c>
+      <c r="D4">
+        <v>0.19619326393810266</v>
+      </c>
+      <c r="E4">
+        <v>2.5470942007863624e-09</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="B5">
+        <v>0.50572757475558239</v>
+      </c>
+      <c r="C5">
+        <v>0.0012902048032147734</v>
+      </c>
+      <c r="D5">
+        <v>0.49298222041997186</v>
+      </c>
+      <c r="E5">
+        <v>2.1230920185759254e-11</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="B6">
+        <v>0.90369110481135584</v>
+      </c>
+      <c r="C6">
+        <v>0.00019919119445188408</v>
+      </c>
+      <c r="D6">
+        <v>0.096109687467571189</v>
+      </c>
+      <c r="E6">
+        <v>1.6526621192681362e-08</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="B7">
+        <v>0.7426981977948337</v>
+      </c>
+      <c r="C7">
+        <v>0.030356673029503976</v>
+      </c>
+      <c r="D7">
+        <v>0.22690731277785339</v>
+      </c>
+      <c r="E7">
+        <v>3.7816397808784271e-05</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="B8">
+        <v>0.99607625333215422</v>
+      </c>
+      <c r="C8">
+        <v>0.0016366582335856558</v>
+      </c>
+      <c r="D8">
+        <v>0.0022870884284967898</v>
+      </c>
+      <c r="E8">
+        <v>5.7634065830195985e-12</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="B9">
+        <v>0.99577914973694059</v>
+      </c>
+      <c r="C9">
+        <v>1.5532022275257749e-05</v>
+      </c>
+      <c r="D9">
+        <v>0.0042051737005046191</v>
+      </c>
+      <c r="E9">
+        <v>1.445402795669083e-07</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="B10">
+        <v>0.99347570501216032</v>
+      </c>
+      <c r="C10">
+        <v>7.7619872627852156e-05</v>
+      </c>
+      <c r="D10">
+        <v>0.0064459490793929257</v>
+      </c>
+      <c r="E10">
+        <v>7.2603581871717012e-07</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="B11">
+        <v>0.056773946551905742</v>
+      </c>
+      <c r="C11">
+        <v>0.018224292930434559</v>
+      </c>
+      <c r="D11">
+        <v>0.87676719524267543</v>
+      </c>
+      <c r="E11">
+        <v>0.048234565274984188</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="B12">
+        <v>0.92572505109550329</v>
+      </c>
+      <c r="C12">
+        <v>1.7816363170309659e-05</v>
+      </c>
+      <c r="D12">
+        <v>0.074239426691790553</v>
+      </c>
+      <c r="E12">
+        <v>1.7705849535839466e-05</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="B13">
+        <v>0.97346694718539428</v>
+      </c>
+      <c r="C13">
+        <v>0.00015345244988343513</v>
+      </c>
+      <c r="D13">
+        <v>0.026228961899045982</v>
+      </c>
+      <c r="E13">
+        <v>0.00015063846567630476</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="B14">
+        <v>0.98691569708810511</v>
+      </c>
+      <c r="C14">
+        <v>0.00012435523714880221</v>
+      </c>
+      <c r="D14">
+        <v>0.012829457718908852</v>
+      </c>
+      <c r="E14">
+        <v>0.00013048995583732841</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="B15">
+        <v>0.98188993480229214</v>
+      </c>
+      <c r="C15">
+        <v>7.5933481656049104e-05</v>
+      </c>
+      <c r="D15">
+        <v>0.017961442460860521</v>
+      </c>
+      <c r="E15">
+        <v>7.2689255191253472e-05</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="B16">
+        <v>0.93508712025616036</v>
+      </c>
+      <c r="C16">
+        <v>0.0018745561670169303</v>
+      </c>
+      <c r="D16">
+        <v>0.062770950402995504</v>
+      </c>
+      <c r="E16">
+        <v>0.00026737317382724449</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="B17">
+        <v>0.91821855107006234</v>
+      </c>
+      <c r="C17">
+        <v>0.00021144791439838361</v>
+      </c>
+      <c r="D17">
+        <v>0.081365983727346824</v>
+      </c>
+      <c r="E17">
+        <v>0.00020401728819251249</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="B18">
+        <v>0.98255486162422312</v>
+      </c>
+      <c r="C18">
+        <v>1.1154683393095665e-05</v>
+      </c>
+      <c r="D18">
+        <v>0.017433576439932628</v>
+      </c>
+      <c r="E18">
+        <v>4.0725245103315207e-07</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="B19">
+        <v>0.59602317838669761</v>
+      </c>
+      <c r="C19">
+        <v>0.0017047845646456358</v>
+      </c>
+      <c r="D19">
+        <v>0.39792264827637708</v>
+      </c>
+      <c r="E19">
+        <v>0.0043493887722797428</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="B20">
+        <v>0.47570227407896071</v>
+      </c>
+      <c r="C20">
+        <v>0.018145879832770068</v>
+      </c>
+      <c r="D20">
+        <v>0.50553041014505939</v>
+      </c>
+      <c r="E20">
+        <v>0.00062143594320987494</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="B21">
+        <v>0.99498600036319862</v>
+      </c>
+      <c r="C21">
+        <v>4.0686673577481873e-06</v>
+      </c>
+      <c r="D21">
+        <v>0.0050092451577769502</v>
+      </c>
+      <c r="E21">
+        <v>6.8581166659057576e-07</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="B22">
+        <v>0.079933240887076082</v>
+      </c>
+      <c r="C22">
+        <v>0.12654439498026948</v>
+      </c>
+      <c r="D22">
+        <v>0.71444861477619837</v>
+      </c>
+      <c r="E22">
+        <v>0.079073749356456169</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="B23">
+        <v>0.98487645672739055</v>
+      </c>
+      <c r="C23">
+        <v>8.9178688161380113e-05</v>
+      </c>
+      <c r="D23">
+        <v>0.014950249465345756</v>
+      </c>
+      <c r="E23">
+        <v>8.4115119102323737e-05</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="B24">
+        <v>0.98735000691627661</v>
+      </c>
+      <c r="C24">
+        <v>0.0079597598912996038</v>
+      </c>
+      <c r="D24">
+        <v>0.0041433895631939107</v>
+      </c>
+      <c r="E24">
+        <v>0.00054684362923003286</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="B25">
+        <v>0.97803410809397584</v>
+      </c>
+      <c r="C25">
+        <v>0.013292701157822672</v>
+      </c>
+      <c r="D25">
+        <v>0.0076855698130185533</v>
+      </c>
+      <c r="E25">
+        <v>0.00098762093518296908</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="B26">
+        <v>0.97485854862144272</v>
+      </c>
+      <c r="C26">
+        <v>0.0057906266814672074</v>
+      </c>
+      <c r="D26">
+        <v>0.014715099601505115</v>
+      </c>
+      <c r="E26">
+        <v>0.0046357250955849499</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="B27">
+        <v>0.9564959267661497</v>
+      </c>
+      <c r="C27">
+        <v>0.0042312044187427155</v>
+      </c>
+      <c r="D27">
+        <v>0.039249454648459171</v>
+      </c>
+      <c r="E27">
+        <v>2.3414166648454838e-05</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="B28">
+        <v>0.983623070258554</v>
+      </c>
+      <c r="C28">
+        <v>0.00061563732824069129</v>
+      </c>
+      <c r="D28">
+        <v>0.015210106898013488</v>
+      </c>
+      <c r="E28">
+        <v>0.00055118551519179714</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="B29">
+        <v>0.75659524491364372</v>
+      </c>
+      <c r="C29">
+        <v>0.00056493772091723872</v>
+      </c>
+      <c r="D29">
+        <v>0.23193187591355915</v>
+      </c>
+      <c r="E29">
+        <v>0.010907941451879909</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="B30">
+        <v>0.57520446287833737</v>
+      </c>
+      <c r="C30">
+        <v>0.098796123465359389</v>
+      </c>
+      <c r="D30">
+        <v>0.27263284342836147</v>
+      </c>
+      <c r="E30">
+        <v>0.053366570227941834</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="B31">
+        <v>0.052178927008532182</v>
+      </c>
+      <c r="C31">
+        <v>0.028052609473491363</v>
+      </c>
+      <c r="D31">
+        <v>0.56420049585682053</v>
+      </c>
+      <c r="E31">
+        <v>0.35556796766115589</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="B32">
+        <v>0.57712871978119262</v>
+      </c>
+      <c r="C32">
+        <v>0.12670945717012894</v>
+      </c>
+      <c r="D32">
+        <v>0.20768820172511124</v>
+      </c>
+      <c r="E32">
+        <v>0.088473621323567272</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="B33">
+        <v>0.98337616698098185</v>
+      </c>
+      <c r="C33">
+        <v>0.001817781550712418</v>
+      </c>
+      <c r="D33">
+        <v>0.014772563026904766</v>
+      </c>
+      <c r="E33">
+        <v>3.3488441401004643e-05</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="B34">
+        <v>5.5292359349950396e-05</v>
+      </c>
+      <c r="C34">
+        <v>0.84531266777914871</v>
+      </c>
+      <c r="D34">
+        <v>0.15463145443545132</v>
+      </c>
+      <c r="E34">
+        <v>5.8542605008323654e-07</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="B35">
+        <v>6.181200754394325e-05</v>
+      </c>
+      <c r="C35">
+        <v>0.92940210572925819</v>
+      </c>
+      <c r="D35">
+        <v>0.070536071028122718</v>
+      </c>
+      <c r="E35">
+        <v>1.1235075010790257e-08</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="B36">
+        <v>0.00091751876651005376</v>
+      </c>
+      <c r="C36">
+        <v>0.98786042361927406</v>
+      </c>
+      <c r="D36">
+        <v>0.011221408597138341</v>
+      </c>
+      <c r="E36">
+        <v>6.4901707774131758e-07</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="B37">
+        <v>0.00075769023991344153</v>
+      </c>
+      <c r="C37">
+        <v>0.95681026547037218</v>
+      </c>
+      <c r="D37">
+        <v>0.042366066103581478</v>
+      </c>
+      <c r="E37">
+        <v>6.5978186132944856e-05</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="B38">
+        <v>2.447568000947225e-05</v>
+      </c>
+      <c r="C38">
+        <v>0.95393202393993237</v>
+      </c>
+      <c r="D38">
+        <v>0.046043499824945468</v>
+      </c>
+      <c r="E38">
+        <v>5.5511266289570168e-10</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="B39">
+        <v>0.00068101625667668175</v>
+      </c>
+      <c r="C39">
+        <v>0.47461533674812079</v>
+      </c>
+      <c r="D39">
+        <v>0.52470357877789164</v>
+      </c>
+      <c r="E39">
+        <v>6.8217310901603079e-08</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="B40">
+        <v>0.0019065346781469564</v>
+      </c>
+      <c r="C40">
+        <v>0.64726626316502966</v>
+      </c>
+      <c r="D40">
+        <v>0.35082686474026531</v>
+      </c>
+      <c r="E40">
+        <v>3.3741655800075081e-07</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="B41">
+        <v>2.865593116434074e-08</v>
+      </c>
+      <c r="C41">
+        <v>0.0016036615743014488</v>
+      </c>
+      <c r="D41">
+        <v>0.99839630944532465</v>
+      </c>
+      <c r="E41">
+        <v>3.2444258693252858e-10</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="B42">
+        <v>0.018432106285307268</v>
+      </c>
+      <c r="C42">
+        <v>0.46212737231085066</v>
+      </c>
+      <c r="D42">
+        <v>0.31955011556282165</v>
+      </c>
+      <c r="E42">
+        <v>0.1998904058410203</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="B43">
+        <v>0.0099945131442181444</v>
+      </c>
+      <c r="C43">
+        <v>0.698526972233243</v>
+      </c>
+      <c r="D43">
+        <v>0.29127665097847577</v>
+      </c>
+      <c r="E43">
+        <v>0.00020186364406299655</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="B44">
+        <v>0.0012177570357400555</v>
+      </c>
+      <c r="C44">
+        <v>0.98058700711216162</v>
+      </c>
+      <c r="D44">
+        <v>0.018195235770178599</v>
+      </c>
+      <c r="E44">
+        <v>8.1919775610863983e-11</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="B45">
+        <v>0.00010850205393724405</v>
+      </c>
+      <c r="C45">
+        <v>0.95480519981774747</v>
+      </c>
+      <c r="D45">
+        <v>0.045085174875428215</v>
+      </c>
+      <c r="E45">
+        <v>1.1232528870043025e-06</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="B46">
+        <v>0.021464413373567637</v>
+      </c>
+      <c r="C46">
+        <v>0.95033567167292632</v>
+      </c>
+      <c r="D46">
+        <v>0.028199914785142041</v>
+      </c>
+      <c r="E46">
+        <v>1.6836410517370812e-10</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="B47">
+        <v>0.0024313580065133001</v>
+      </c>
+      <c r="C47">
+        <v>0.91339049240787662</v>
+      </c>
+      <c r="D47">
+        <v>0.084178148625177529</v>
+      </c>
+      <c r="E47">
+        <v>9.6043259278039694e-10</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="B48">
+        <v>1.3153797437698715e-05</v>
+      </c>
+      <c r="C48">
+        <v>0.53738022738973457</v>
+      </c>
+      <c r="D48">
+        <v>0.46259349544731232</v>
+      </c>
+      <c r="E48">
+        <v>1.3123365515318982e-05</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="B49">
+        <v>0.13552923015321588</v>
+      </c>
+      <c r="C49">
+        <v>0.82521120558649796</v>
+      </c>
+      <c r="D49">
+        <v>0.039209125980723167</v>
+      </c>
+      <c r="E49">
+        <v>5.0438279562883321e-05</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="B50">
+        <v>0.00059684647286087594</v>
+      </c>
+      <c r="C50">
+        <v>0.7981696178646801</v>
+      </c>
+      <c r="D50">
+        <v>0.20120843059005453</v>
+      </c>
+      <c r="E50">
+        <v>2.5105072404469401e-05</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="B51">
+        <v>0.0044271323065545121</v>
+      </c>
+      <c r="C51">
+        <v>0.60864877648937854</v>
+      </c>
+      <c r="D51">
+        <v>0.38475148079956784</v>
+      </c>
+      <c r="E51">
+        <v>0.0021726104044989922</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="B52">
+        <v>0.005607733001029837</v>
+      </c>
+      <c r="C52">
+        <v>0.72454803263818546</v>
+      </c>
+      <c r="D52">
+        <v>0.26983444567894371</v>
+      </c>
+      <c r="E52">
+        <v>9.7886818409359851e-06</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="B53">
+        <v>0.0020542396088948931</v>
+      </c>
+      <c r="C53">
+        <v>0.63052649709627295</v>
+      </c>
+      <c r="D53">
+        <v>0.36741926329456082</v>
+      </c>
+      <c r="E53">
+        <v>2.7154829380973594e-13</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="B54">
+        <v>0.0012564552071990802</v>
+      </c>
+      <c r="C54">
+        <v>0.90792754294945988</v>
+      </c>
+      <c r="D54">
+        <v>0.090816001816165212</v>
+      </c>
+      <c r="E54">
+        <v>2.7175890696857456e-11</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="B55">
+        <v>0.018239179214538475</v>
+      </c>
+      <c r="C55">
+        <v>0.41840603204191934</v>
+      </c>
+      <c r="D55">
+        <v>0.56230742812674628</v>
+      </c>
+      <c r="E55">
+        <v>0.0010473606167960225</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="B56">
+        <v>0.0002076830715866899</v>
+      </c>
+      <c r="C56">
+        <v>0.88532842462766836</v>
+      </c>
+      <c r="D56">
+        <v>0.11446389208803238</v>
+      </c>
+      <c r="E56">
+        <v>2.1271262615273943e-10</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="B57">
+        <v>0.0013258340523356303</v>
+      </c>
+      <c r="C57">
+        <v>0.81093281639703674</v>
+      </c>
+      <c r="D57">
+        <v>0.1877412686328542</v>
+      </c>
+      <c r="E57">
+        <v>8.0917773447458436e-08</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="B58">
+        <v>0.0020361487450669758</v>
+      </c>
+      <c r="C58">
+        <v>0.82905978014318082</v>
+      </c>
+      <c r="D58">
+        <v>0.16889079378235408</v>
+      </c>
+      <c r="E58">
+        <v>1.3277329397916866e-05</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="B59">
+        <v>0.011711350157865669</v>
+      </c>
+      <c r="C59">
+        <v>0.77745924868270522</v>
+      </c>
+      <c r="D59">
+        <v>0.20849152993485826</v>
+      </c>
+      <c r="E59">
+        <v>0.0023378712245709422</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="B60">
+        <v>0.01086518731661513</v>
+      </c>
+      <c r="C60">
+        <v>0.79670575373619401</v>
+      </c>
+      <c r="D60">
+        <v>0.19230592771773661</v>
+      </c>
+      <c r="E60">
+        <v>0.00012313122945415913</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="B61">
+        <v>0.01130654574646164</v>
+      </c>
+      <c r="C61">
+        <v>0.52917549690594767</v>
+      </c>
+      <c r="D61">
+        <v>0.45943020593375505</v>
+      </c>
+      <c r="E61">
+        <v>8.7751413835754084e-05</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="B62">
+        <v>0.00085038151747180303</v>
+      </c>
+      <c r="C62">
+        <v>0.40356716373272566</v>
+      </c>
+      <c r="D62">
+        <v>0.59556658960127651</v>
+      </c>
+      <c r="E62">
+        <v>1.5865148526020968e-05</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="B63">
+        <v>0.049172505592112253</v>
+      </c>
+      <c r="C63">
+        <v>0.0030636508192266494</v>
+      </c>
+      <c r="D63">
+        <v>0.70560061613999348</v>
+      </c>
+      <c r="E63">
+        <v>0.24216322744866761</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="B64">
+        <v>0.0046955286439912059</v>
+      </c>
+      <c r="C64">
+        <v>0.019664618063540966</v>
+      </c>
+      <c r="D64">
+        <v>0.96658118314557151</v>
+      </c>
+      <c r="E64">
+        <v>0.0090586701468963211</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="B65">
+        <v>0.027671885520638768</v>
+      </c>
+      <c r="C65">
+        <v>0.035266097784752447</v>
+      </c>
+      <c r="D65">
+        <v>0.93231348556357474</v>
+      </c>
+      <c r="E65">
+        <v>0.0047485311310341248</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="B66">
+        <v>0.0032841638782331725</v>
+      </c>
+      <c r="C66">
+        <v>0.0086212202309733782</v>
+      </c>
+      <c r="D66">
+        <v>0.60083223775978956</v>
+      </c>
+      <c r="E66">
+        <v>0.38726237813100389</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="B67">
+        <v>0.014267250326056153</v>
+      </c>
+      <c r="C67">
+        <v>0.046280432283321016</v>
+      </c>
+      <c r="D67">
+        <v>0.93015913242509463</v>
+      </c>
+      <c r="E67">
+        <v>0.0092931849655280546</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="B68">
+        <v>0.00030770677326739286</v>
+      </c>
+      <c r="C68">
+        <v>0.001108562411134722</v>
+      </c>
+      <c r="D68">
+        <v>0.99814301103981928</v>
+      </c>
+      <c r="E68">
+        <v>0.00044071977577866679</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="B69">
+        <v>0.0051660475214851927</v>
+      </c>
+      <c r="C69">
+        <v>0.12337768797274114</v>
+      </c>
+      <c r="D69">
+        <v>0.85422305501380658</v>
+      </c>
+      <c r="E69">
+        <v>0.017233209491967248</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="B70">
+        <v>0.00017059451408394486</v>
+      </c>
+      <c r="C70">
+        <v>0.047817041106211641</v>
+      </c>
+      <c r="D70">
+        <v>0.92345718407756561</v>
+      </c>
+      <c r="E70">
+        <v>0.028555180302138758</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="B71">
+        <v>0.032822307453755084</v>
+      </c>
+      <c r="C71">
+        <v>0.05646084354995233</v>
+      </c>
+      <c r="D71">
+        <v>0.90760078172498315</v>
+      </c>
+      <c r="E71">
+        <v>0.0031160672713093892</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="B72">
+        <v>0.0023933965318807967</v>
+      </c>
+      <c r="C72">
+        <v>0.076977795219353815</v>
+      </c>
+      <c r="D72">
+        <v>0.91819863377723265</v>
+      </c>
+      <c r="E72">
+        <v>0.0024301744715326478</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="B73">
+        <v>0.02232358931190951</v>
+      </c>
+      <c r="C73">
+        <v>0.10695207369277335</v>
+      </c>
+      <c r="D73">
+        <v>0.86989964607425563</v>
+      </c>
+      <c r="E73">
+        <v>0.00082469092106160426</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="B74">
+        <v>0.0020317157455342566</v>
+      </c>
+      <c r="C74">
+        <v>0.00010314449166666226</v>
+      </c>
+      <c r="D74">
+        <v>0.99786090479767853</v>
+      </c>
+      <c r="E74">
+        <v>4.2349651206121657e-06</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="B75">
+        <v>0.043245708355768818</v>
+      </c>
+      <c r="C75">
+        <v>0.0075082746180849787</v>
+      </c>
+      <c r="D75">
+        <v>0.9216135079843174</v>
+      </c>
+      <c r="E75">
+        <v>0.027632509041828793</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="B76">
+        <v>0.0097034069770718205</v>
+      </c>
+      <c r="C76">
+        <v>7.915340751201516e-05</v>
+      </c>
+      <c r="D76">
+        <v>0.97790947588776922</v>
+      </c>
+      <c r="E76">
+        <v>0.012307963727646899</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="B77">
+        <v>0.0014108059000177465</v>
+      </c>
+      <c r="C77">
+        <v>0.012791439103224512</v>
+      </c>
+      <c r="D77">
+        <v>0.98538710961893128</v>
+      </c>
+      <c r="E77">
+        <v>0.00041064537782644397</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="B78">
+        <v>0.0014208949965183511</v>
+      </c>
+      <c r="C78">
+        <v>0.0070148029412146909</v>
+      </c>
+      <c r="D78">
+        <v>0.98944667225589267</v>
+      </c>
+      <c r="E78">
+        <v>0.0021176298063743321</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="B79">
+        <v>0.01216693345142379</v>
+      </c>
+      <c r="C79">
+        <v>0.0018583517006536181</v>
+      </c>
+      <c r="D79">
+        <v>0.98316032502228734</v>
+      </c>
+      <c r="E79">
+        <v>0.0028143898256351497</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="B80">
+        <v>0.0037843489029271136</v>
+      </c>
+      <c r="C80">
+        <v>0.0021767324092483295</v>
+      </c>
+      <c r="D80">
+        <v>0.99370437379931797</v>
+      </c>
+      <c r="E80">
+        <v>0.00033454488850655179</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="B81">
+        <v>0.074653901971223249</v>
+      </c>
+      <c r="C81">
+        <v>0.013360368018575442</v>
+      </c>
+      <c r="D81">
+        <v>0.91010925748329452</v>
+      </c>
+      <c r="E81">
+        <v>0.0018764725269068191</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="B82">
+        <v>0.026046878562984932</v>
+      </c>
+      <c r="C82">
+        <v>0.0014940859835930931</v>
+      </c>
+      <c r="D82">
+        <v>0.97096269049977835</v>
+      </c>
+      <c r="E82">
+        <v>0.0014963449536436085</v>
+      </c>
+      <c r="F82">
+        <v>3</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="B83">
+        <v>0.043518681707631908</v>
+      </c>
+      <c r="C83">
+        <v>0.0044739991796249384</v>
+      </c>
+      <c r="D83">
+        <v>0.93626527281047878</v>
+      </c>
+      <c r="E83">
+        <v>0.015742046302264352</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="B84">
+        <v>0.015956287052533866</v>
+      </c>
+      <c r="C84">
+        <v>0.037790190297028473</v>
+      </c>
+      <c r="D84">
+        <v>0.94473010459731488</v>
+      </c>
+      <c r="E84">
+        <v>0.0015234180531227711</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="B85">
+        <v>0.012081202265923078</v>
+      </c>
+      <c r="C85">
+        <v>0.017926910370789119</v>
+      </c>
+      <c r="D85">
+        <v>0.96998297139294798</v>
+      </c>
+      <c r="E85">
+        <v>8.9159703399972398e-06</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="B86">
+        <v>0.12388635761610248</v>
+      </c>
+      <c r="C86">
+        <v>0.0013988342978856335</v>
+      </c>
+      <c r="D86">
+        <v>0.87325233396176416</v>
+      </c>
+      <c r="E86">
+        <v>0.0014624741242477747</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="B87">
+        <v>0.00030691841631094112</v>
+      </c>
+      <c r="C87">
+        <v>0.071329851538184469</v>
+      </c>
+      <c r="D87">
+        <v>0.92547854760234838</v>
+      </c>
+      <c r="E87">
+        <v>0.0028846824431562113</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="B88">
+        <v>0.0022939805609136269</v>
+      </c>
+      <c r="C88">
+        <v>0.044264125383922631</v>
+      </c>
+      <c r="D88">
+        <v>0.90478195535649264</v>
+      </c>
+      <c r="E88">
+        <v>0.048659938698671169</v>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="B89">
+        <v>0.0023138687564564797</v>
+      </c>
+      <c r="C89">
+        <v>0.039245688553428096</v>
+      </c>
+      <c r="D89">
+        <v>0.95127169870783634</v>
+      </c>
+      <c r="E89">
+        <v>0.0071687439822791686</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="B90">
+        <v>0.0012618330940864996</v>
+      </c>
+      <c r="C90">
+        <v>0.027618315051145405</v>
+      </c>
+      <c r="D90">
+        <v>0.94038723183687845</v>
+      </c>
+      <c r="E90">
+        <v>0.030732620017889685</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="B91">
+        <v>0.010668246687191674</v>
+      </c>
+      <c r="C91">
+        <v>0.001349929955175865</v>
+      </c>
+      <c r="D91">
+        <v>0.80744896910692554</v>
+      </c>
+      <c r="E91">
+        <v>0.180532854250707</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="G91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="B92">
+        <v>0.00022112224089088238</v>
+      </c>
+      <c r="C92">
+        <v>0.00021472015286132278</v>
+      </c>
+      <c r="D92">
+        <v>0.869384168493889</v>
+      </c>
+      <c r="E92">
+        <v>0.13017998911235881</v>
+      </c>
+      <c r="F92">
+        <v>3</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="s">
+        <v>830</v>
+      </c>
+      <c r="B93">
+        <v>0.0050988076537357568</v>
+      </c>
+      <c r="C93">
+        <v>0.026319802549436857</v>
+      </c>
+      <c r="D93">
+        <v>0.96765984644804626</v>
+      </c>
+      <c r="E93">
+        <v>0.00092154334878112088</v>
+      </c>
+      <c r="F93">
+        <v>3</v>
+      </c>
+      <c r="G93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="B94">
+        <v>0.013845102278178614</v>
+      </c>
+      <c r="C94">
+        <v>0.033446681566092366</v>
+      </c>
+      <c r="D94">
+        <v>0.93755624076855393</v>
+      </c>
+      <c r="E94">
+        <v>0.015151975387175149</v>
+      </c>
+      <c r="F94">
+        <v>3</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="B95">
+        <v>0.0048800439585689583</v>
+      </c>
+      <c r="C95">
+        <v>0.031170832777626063</v>
+      </c>
+      <c r="D95">
+        <v>0.95036759869601173</v>
+      </c>
+      <c r="E95">
+        <v>0.013581524567793199</v>
+      </c>
+      <c r="F95">
+        <v>3</v>
+      </c>
+      <c r="G95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="s">
+        <v>833</v>
+      </c>
+      <c r="B96">
+        <v>0.0014808740223148291</v>
+      </c>
+      <c r="C96">
+        <v>0.033882097480154222</v>
+      </c>
+      <c r="D96">
+        <v>0.81010426170186467</v>
+      </c>
+      <c r="E96">
+        <v>0.1545327667956663</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+      <c r="G96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="B97">
+        <v>0.023671799606891069</v>
+      </c>
+      <c r="C97">
+        <v>0.0088613365971227428</v>
+      </c>
+      <c r="D97">
+        <v>0.83807432987583452</v>
+      </c>
+      <c r="E97">
+        <v>0.1293925339201516</v>
+      </c>
+      <c r="F97">
+        <v>3</v>
+      </c>
+      <c r="G97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="B98">
+        <v>9.9772498437525784e-05</v>
+      </c>
+      <c r="C98">
+        <v>0.005224302089869474</v>
+      </c>
+      <c r="D98">
+        <v>0.99463979257426305</v>
+      </c>
+      <c r="E98">
+        <v>3.6132837430060544e-05</v>
+      </c>
+      <c r="F98">
+        <v>3</v>
+      </c>
+      <c r="G98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="s">
+        <v>836</v>
+      </c>
+      <c r="B99">
+        <v>0.0015101716148162784</v>
+      </c>
+      <c r="C99">
+        <v>0.017728810868048731</v>
+      </c>
+      <c r="D99">
+        <v>0.97651251465924471</v>
+      </c>
+      <c r="E99">
+        <v>0.0042485028578903494</v>
+      </c>
+      <c r="F99">
+        <v>3</v>
+      </c>
+      <c r="G99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="B100">
+        <v>3.101558050194044e-06</v>
+      </c>
+      <c r="C100">
+        <v>0.011568342213665107</v>
+      </c>
+      <c r="D100">
+        <v>0.98004628078727218</v>
+      </c>
+      <c r="E100">
+        <v>0.0083822754410125544</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="B101">
+        <v>0.00053451330859509438</v>
+      </c>
+      <c r="C101">
+        <v>0.016390643902023775</v>
+      </c>
+      <c r="D101">
+        <v>0.95176826237603618</v>
+      </c>
+      <c r="E101">
+        <v>0.031306580413344831</v>
+      </c>
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="G101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="B102">
+        <v>0.013377191904003506</v>
+      </c>
+      <c r="C102">
+        <v>0.0063560692715972783</v>
+      </c>
+      <c r="D102">
+        <v>0.98026666318837585</v>
+      </c>
+      <c r="E102">
+        <v>7.563602343129002e-08</v>
+      </c>
+      <c r="F102">
+        <v>3</v>
+      </c>
+      <c r="G102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="B103">
+        <v>0.0028969425120423551</v>
+      </c>
+      <c r="C103">
+        <v>0.00097974202419397107</v>
+      </c>
+      <c r="D103">
+        <v>0.99612328770360303</v>
+      </c>
+      <c r="E103">
+        <v>2.7760160614601597e-08</v>
+      </c>
+      <c r="F103">
+        <v>3</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="B104">
+        <v>0.0027865056884688799</v>
+      </c>
+      <c r="C104">
+        <v>0.0012010471683394956</v>
+      </c>
+      <c r="D104">
+        <v>0.99601240667371205</v>
+      </c>
+      <c r="E104">
+        <v>4.0469479451854451e-08</v>
+      </c>
+      <c r="F104">
+        <v>3</v>
+      </c>
+      <c r="G104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="B105">
+        <v>0.00057845332500378456</v>
+      </c>
+      <c r="C105">
+        <v>0.06958912484307922</v>
+      </c>
+      <c r="D105">
+        <v>0.92983103543625778</v>
+      </c>
+      <c r="E105">
+        <v>1.3863956592000025e-06</v>
+      </c>
+      <c r="F105">
+        <v>3</v>
+      </c>
+      <c r="G105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="B106">
+        <v>0.006951489516793247</v>
+      </c>
+      <c r="C106">
+        <v>0.0090007428211190468</v>
+      </c>
+      <c r="D106">
+        <v>0.98399196472387407</v>
+      </c>
+      <c r="E106">
+        <v>5.5802938213600267e-05</v>
+      </c>
+      <c r="F106">
+        <v>3</v>
+      </c>
+      <c r="G106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="B107">
+        <v>0.18747153557967233</v>
+      </c>
+      <c r="C107">
+        <v>0.0091726809222372509</v>
+      </c>
+      <c r="D107">
+        <v>0.7559718132579103</v>
+      </c>
+      <c r="E107">
+        <v>0.047383970240180151</v>
+      </c>
+      <c r="F107">
+        <v>3</v>
+      </c>
+      <c r="G107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="B108">
+        <v>0.032414182600711557</v>
+      </c>
+      <c r="C108">
+        <v>0.0045099024648025503</v>
+      </c>
+      <c r="D108">
+        <v>0.96307421128008763</v>
+      </c>
+      <c r="E108">
+        <v>1.703654398273749e-06</v>
+      </c>
+      <c r="F108">
+        <v>3</v>
+      </c>
+      <c r="G108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="B109">
+        <v>0.045065883567554199</v>
+      </c>
+      <c r="C109">
+        <v>0.21798891357143321</v>
+      </c>
+      <c r="D109">
+        <v>0.73676080377895503</v>
+      </c>
+      <c r="E109">
+        <v>0.00018439908205770597</v>
+      </c>
+      <c r="F109">
+        <v>3</v>
+      </c>
+      <c r="G109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="9" t="s">
+        <v>847</v>
+      </c>
+      <c r="B110">
+        <v>0.20863684137322222</v>
+      </c>
+      <c r="C110">
+        <v>0.02883685663674182</v>
+      </c>
+      <c r="D110">
+        <v>0.76209083992010396</v>
+      </c>
+      <c r="E110">
+        <v>0.00043546206993196545</v>
+      </c>
+      <c r="F110">
+        <v>3</v>
+      </c>
+      <c r="G110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="B111">
+        <v>0.0029893434807639089</v>
+      </c>
+      <c r="C111">
+        <v>0.0014769570225815903</v>
+      </c>
+      <c r="D111">
+        <v>0.99540444761781077</v>
+      </c>
+      <c r="E111">
+        <v>0.00012925187884374771</v>
+      </c>
+      <c r="F111">
+        <v>3</v>
+      </c>
+      <c r="G111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="B112">
+        <v>0.0047303633750221353</v>
+      </c>
+      <c r="C112">
+        <v>0.0015018083018432354</v>
+      </c>
+      <c r="D112">
+        <v>0.99375605927084709</v>
+      </c>
+      <c r="E112">
+        <v>1.1769052287636884e-05</v>
+      </c>
+      <c r="F112">
+        <v>3</v>
+      </c>
+      <c r="G112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="9" t="s">
+        <v>850</v>
+      </c>
+      <c r="B113">
+        <v>0.0063878660060650242</v>
+      </c>
+      <c r="C113">
+        <v>0.0025851486665129796</v>
+      </c>
+      <c r="D113">
+        <v>0.98907100486111321</v>
+      </c>
+      <c r="E113">
+        <v>0.0019559804663088474</v>
+      </c>
+      <c r="F113">
+        <v>3</v>
+      </c>
+      <c r="G113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="B114">
+        <v>0.018753004986083843</v>
+      </c>
+      <c r="C114">
+        <v>0.0022279326426085442</v>
+      </c>
+      <c r="D114">
+        <v>0.97901145146383406</v>
+      </c>
+      <c r="E114">
+        <v>7.6109074736055199e-06</v>
+      </c>
+      <c r="F114">
+        <v>3</v>
+      </c>
+      <c r="G114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="9" t="s">
+        <v>852</v>
+      </c>
+      <c r="B115">
+        <v>0.007016772892684953</v>
+      </c>
+      <c r="C115">
+        <v>0.016804092406747372</v>
+      </c>
+      <c r="D115">
+        <v>0.97605404871537316</v>
+      </c>
+      <c r="E115">
+        <v>0.00012508598519442833</v>
+      </c>
+      <c r="F115">
+        <v>3</v>
+      </c>
+      <c r="G115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="B116">
+        <v>0.00074866628636952861</v>
+      </c>
+      <c r="C116">
+        <v>0.0006727685130567488</v>
+      </c>
+      <c r="D116">
+        <v>0.99857781811037105</v>
+      </c>
+      <c r="E116">
+        <v>7.470902026354737e-07</v>
+      </c>
+      <c r="F116">
+        <v>3</v>
+      </c>
+      <c r="G116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="B117">
+        <v>0.014873617941225093</v>
+      </c>
+      <c r="C117">
+        <v>0.00037602498736212915</v>
+      </c>
+      <c r="D117">
+        <v>0.98438764619337416</v>
+      </c>
+      <c r="E117">
+        <v>0.00036271087803863049</v>
+      </c>
+      <c r="F117">
+        <v>3</v>
+      </c>
+      <c r="G117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="B118">
+        <v>0.02291082018215446</v>
+      </c>
+      <c r="C118">
+        <v>0.0038088973252619553</v>
+      </c>
+      <c r="D118">
+        <v>0.97276516610420749</v>
+      </c>
+      <c r="E118">
+        <v>0.0005151163883761131</v>
+      </c>
+      <c r="F118">
+        <v>3</v>
+      </c>
+      <c r="G118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="9" t="s">
+        <v>856</v>
+      </c>
+      <c r="B119">
+        <v>0.35072560290045812</v>
+      </c>
+      <c r="C119">
+        <v>0.07746337882630687</v>
+      </c>
+      <c r="D119">
+        <v>0.57160142885057252</v>
+      </c>
+      <c r="E119">
+        <v>0.00020958942266260369</v>
+      </c>
+      <c r="F119">
+        <v>3</v>
+      </c>
+      <c r="G119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="9" t="s">
+        <v>857</v>
+      </c>
+      <c r="B120">
+        <v>0.010956475691527684</v>
+      </c>
+      <c r="C120">
+        <v>0.0072904019530151774</v>
+      </c>
+      <c r="D120">
+        <v>0.97965775427392743</v>
+      </c>
+      <c r="E120">
+        <v>0.0020953680815297962</v>
+      </c>
+      <c r="F120">
+        <v>3</v>
+      </c>
+      <c r="G120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="9" t="s">
+        <v>858</v>
+      </c>
+      <c r="B121">
+        <v>0.019339706893071511</v>
+      </c>
+      <c r="C121">
+        <v>0.0041915560713037571</v>
+      </c>
+      <c r="D121">
+        <v>0.97642287665584426</v>
+      </c>
+      <c r="E121">
+        <v>4.5860379780440167e-05</v>
+      </c>
+      <c r="F121">
+        <v>3</v>
+      </c>
+      <c r="G121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="9" t="s">
+        <v>859</v>
+      </c>
+      <c r="B122">
+        <v>0.005115228885727784</v>
+      </c>
+      <c r="C122">
+        <v>0.0025034082735812839</v>
+      </c>
+      <c r="D122">
+        <v>0.99236666508580829</v>
+      </c>
+      <c r="E122">
+        <v>1.4697754882665371e-05</v>
+      </c>
+      <c r="F122">
+        <v>3</v>
+      </c>
+      <c r="G122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="B123">
+        <v>0.058176052558023668</v>
+      </c>
+      <c r="C123">
+        <v>0.00042860601421602278</v>
+      </c>
+      <c r="D123">
+        <v>0.93997224562011439</v>
+      </c>
+      <c r="E123">
+        <v>0.0014230958076458609</v>
+      </c>
+      <c r="F123">
+        <v>3</v>
+      </c>
+      <c r="G123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="B124">
+        <v>0.056423044561540639</v>
+      </c>
+      <c r="C124">
+        <v>0.0097379134161712198</v>
+      </c>
+      <c r="D124">
+        <v>0.93361392775332586</v>
+      </c>
+      <c r="E124">
+        <v>0.00022511426896235887</v>
+      </c>
+      <c r="F124">
+        <v>3</v>
+      </c>
+      <c r="G124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="B125">
+        <v>0.027023810397841165</v>
+      </c>
+      <c r="C125">
+        <v>0.00049673807499261871</v>
+      </c>
+      <c r="D125">
+        <v>0.97246681598954454</v>
+      </c>
+      <c r="E125">
+        <v>1.2635537621686561e-05</v>
+      </c>
+      <c r="F125">
+        <v>3</v>
+      </c>
+      <c r="G125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="B126">
+        <v>0.22981563405634861</v>
+      </c>
+      <c r="C126">
+        <v>0.18399666331134346</v>
+      </c>
+      <c r="D126">
+        <v>0.41676564040384972</v>
+      </c>
+      <c r="E126">
+        <v>0.16942206222845818</v>
+      </c>
+      <c r="F126">
+        <v>3</v>
+      </c>
+      <c r="G126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="B127">
+        <v>0.0081099685271742595</v>
+      </c>
+      <c r="C127">
+        <v>0.028468530130158699</v>
+      </c>
+      <c r="D127">
+        <v>0.96336185138840447</v>
+      </c>
+      <c r="E127">
+        <v>5.964995426264034e-05</v>
+      </c>
+      <c r="F127">
+        <v>3</v>
+      </c>
+      <c r="G127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="B128">
+        <v>0.085836846840919356</v>
+      </c>
+      <c r="C128">
+        <v>0.0058206280890942931</v>
+      </c>
+      <c r="D128">
+        <v>0.9083353153881879</v>
+      </c>
+      <c r="E128">
+        <v>7.2096817983803212e-06</v>
+      </c>
+      <c r="F128">
+        <v>3</v>
+      </c>
+      <c r="G128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="9" t="s">
+        <v>866</v>
+      </c>
+      <c r="B129">
+        <v>0.073400903474285226</v>
+      </c>
+      <c r="C129">
+        <v>0.03406202708251016</v>
+      </c>
+      <c r="D129">
+        <v>0.89091270493154673</v>
+      </c>
+      <c r="E129">
+        <v>0.0016243645116581129</v>
+      </c>
+      <c r="F129">
+        <v>3</v>
+      </c>
+      <c r="G129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="9" t="s">
+        <v>867</v>
+      </c>
+      <c r="B130">
+        <v>0.0073648515691660784</v>
+      </c>
+      <c r="C130">
+        <v>0.048601394803684334</v>
+      </c>
+      <c r="D130">
+        <v>0.9396839043587436</v>
+      </c>
+      <c r="E130">
+        <v>0.0043498492684061595</v>
+      </c>
+      <c r="F130">
+        <v>3</v>
+      </c>
+      <c r="G130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="B131">
+        <v>0.005572576264214665</v>
+      </c>
+      <c r="C131">
+        <v>0.004351111368420247</v>
+      </c>
+      <c r="D131">
+        <v>0.99005324246356419</v>
+      </c>
+      <c r="E131">
+        <v>2.3069903800965789e-05</v>
+      </c>
+      <c r="F131">
+        <v>3</v>
+      </c>
+      <c r="G131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="9" t="s">
+        <v>869</v>
+      </c>
+      <c r="B132">
+        <v>0.0033229517550439585</v>
+      </c>
+      <c r="C132">
+        <v>0.044498103305348292</v>
+      </c>
+      <c r="D132">
+        <v>0.95217805466456573</v>
+      </c>
+      <c r="E132">
+        <v>8.902750421026648e-07</v>
+      </c>
+      <c r="F132">
+        <v>3</v>
+      </c>
+      <c r="G132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="B133">
+        <v>0.00013862463093084078</v>
+      </c>
+      <c r="C133">
+        <v>0.0003875730302308572</v>
+      </c>
+      <c r="D133">
+        <v>0.99947086653851902</v>
+      </c>
+      <c r="E133">
+        <v>2.93580031931863e-06</v>
+      </c>
+      <c r="F133">
+        <v>3</v>
+      </c>
+      <c r="G133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="9" t="s">
+        <v>871</v>
+      </c>
+      <c r="B134">
+        <v>0.004789824900170373</v>
+      </c>
+      <c r="C134">
+        <v>0.03555909868277668</v>
+      </c>
+      <c r="D134">
+        <v>0.95890419359196777</v>
+      </c>
+      <c r="E134">
+        <v>0.00074688282508523585</v>
+      </c>
+      <c r="F134">
+        <v>3</v>
+      </c>
+      <c r="G134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="B135">
+        <v>0.029685898073395563</v>
+      </c>
+      <c r="C135">
+        <v>0.26184577063992115</v>
+      </c>
+      <c r="D135">
+        <v>0.70821447980659258</v>
+      </c>
+      <c r="E135">
+        <v>0.0002538514800908181</v>
+      </c>
+      <c r="F135">
+        <v>3</v>
+      </c>
+      <c r="G135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="B136">
+        <v>0.0020739844759203587</v>
+      </c>
+      <c r="C136">
+        <v>0.2215979219961477</v>
+      </c>
+      <c r="D136">
+        <v>0.77623429436844693</v>
+      </c>
+      <c r="E136">
+        <v>9.3799159485093942e-05</v>
+      </c>
+      <c r="F136">
+        <v>3</v>
+      </c>
+      <c r="G136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="B137">
+        <v>0.006689737878134339</v>
+      </c>
+      <c r="C137">
+        <v>0.0022699579525714405</v>
+      </c>
+      <c r="D137">
+        <v>0.99097816041330478</v>
+      </c>
+      <c r="E137">
+        <v>6.2143755989496296e-05</v>
+      </c>
+      <c r="F137">
+        <v>3</v>
+      </c>
+      <c r="G137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="B138">
+        <v>0.0075132213978116773</v>
+      </c>
+      <c r="C138">
+        <v>0.0071131570021973952</v>
+      </c>
+      <c r="D138">
+        <v>0.98513965453446695</v>
+      </c>
+      <c r="E138">
+        <v>0.00023396706552388853</v>
+      </c>
+      <c r="F138">
+        <v>3</v>
+      </c>
+      <c r="G138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="B139">
+        <v>0.059265683682274389</v>
+      </c>
+      <c r="C139">
+        <v>0.035217626449933065</v>
+      </c>
+      <c r="D139">
+        <v>0.90540852674091132</v>
+      </c>
+      <c r="E139">
+        <v>0.00010816312688112986</v>
+      </c>
+      <c r="F139">
+        <v>3</v>
+      </c>
+      <c r="G139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="B140">
+        <v>0.012483717808107479</v>
+      </c>
+      <c r="C140">
+        <v>0.036783869553628903</v>
+      </c>
+      <c r="D140">
+        <v>0.95072635321759846</v>
+      </c>
+      <c r="E140">
+        <v>6.0594206651557319e-06</v>
+      </c>
+      <c r="F140">
+        <v>3</v>
+      </c>
+      <c r="G140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="9" t="s">
+        <v>878</v>
+      </c>
+      <c r="B141">
+        <v>0.033556424067027191</v>
+      </c>
+      <c r="C141">
+        <v>0.012317729513719552</v>
+      </c>
+      <c r="D141">
+        <v>0.95366033873538059</v>
+      </c>
+      <c r="E141">
+        <v>0.00046550768387266177</v>
+      </c>
+      <c r="F141">
+        <v>3</v>
+      </c>
+      <c r="G141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="B142">
+        <v>0.0067449261668926499</v>
+      </c>
+      <c r="C142">
+        <v>0.0091544768926587333</v>
+      </c>
+      <c r="D142">
+        <v>0.98392875312568828</v>
+      </c>
+      <c r="E142">
+        <v>0.00017184381476025167</v>
+      </c>
+      <c r="F142">
+        <v>3</v>
+      </c>
+      <c r="G142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="B143">
+        <v>0.018144982993018342</v>
+      </c>
+      <c r="C143">
+        <v>0.1511964000731868</v>
+      </c>
+      <c r="D143">
+        <v>0.8297707791540313</v>
+      </c>
+      <c r="E143">
+        <v>0.00088783777976345513</v>
+      </c>
+      <c r="F143">
+        <v>3</v>
+      </c>
+      <c r="G143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="B144">
+        <v>0.025748045102934249</v>
+      </c>
+      <c r="C144">
+        <v>0.1395015239276266</v>
+      </c>
+      <c r="D144">
+        <v>0.82831320224073168</v>
+      </c>
+      <c r="E144">
+        <v>0.0064372287287072887</v>
+      </c>
+      <c r="F144">
+        <v>3</v>
+      </c>
+      <c r="G144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="B145">
+        <v>0.00025889585582027221</v>
+      </c>
+      <c r="C145">
+        <v>0.37272152589351615</v>
+      </c>
+      <c r="D145">
+        <v>0.62700344567997857</v>
+      </c>
+      <c r="E145">
+        <v>1.6132570684909794e-05</v>
+      </c>
+      <c r="F145">
+        <v>3</v>
+      </c>
+      <c r="G145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="B146">
+        <v>0.003419231234779197</v>
+      </c>
+      <c r="C146">
+        <v>0.00012994953772131474</v>
+      </c>
+      <c r="D146">
+        <v>0.99645081917353207</v>
+      </c>
+      <c r="E146">
+        <v>5.3967455534289244e-11</v>
+      </c>
+      <c r="F146">
+        <v>3</v>
+      </c>
+      <c r="G146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="B147">
+        <v>0.08632701330878996</v>
+      </c>
+      <c r="C147">
+        <v>0.14496564868835235</v>
+      </c>
+      <c r="D147">
+        <v>0.76870714530825934</v>
+      </c>
+      <c r="E147">
+        <v>1.9269459840697725e-07</v>
+      </c>
+      <c r="F147">
+        <v>3</v>
+      </c>
+      <c r="G147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="B148">
+        <v>0.041168128388922823</v>
+      </c>
+      <c r="C148">
+        <v>0.0001601837520985646</v>
+      </c>
+      <c r="D148">
+        <v>0.95867168766143307</v>
+      </c>
+      <c r="E148">
+        <v>1.9754553650500776e-10</v>
+      </c>
+      <c r="F148">
+        <v>3</v>
+      </c>
+      <c r="G148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="B149">
+        <v>0.001875642650530044</v>
+      </c>
+      <c r="C149">
+        <v>0.032729031933623906</v>
+      </c>
+      <c r="D149">
+        <v>0.96539510674314288</v>
+      </c>
+      <c r="E149">
+        <v>2.1867270305076303e-07</v>
+      </c>
+      <c r="F149">
+        <v>3</v>
+      </c>
+      <c r="G149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="B150">
+        <v>0.0035757342741276482</v>
+      </c>
+      <c r="C150">
+        <v>0.036595319346433085</v>
+      </c>
+      <c r="D150">
+        <v>0.95982413017232815</v>
+      </c>
+      <c r="E150">
+        <v>4.8162071111006053e-06</v>
+      </c>
+      <c r="F150">
+        <v>3</v>
+      </c>
+      <c r="G150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="B151">
+        <v>0.0024527812626453658</v>
+      </c>
+      <c r="C151">
+        <v>0.055473040598830292</v>
+      </c>
+      <c r="D151">
+        <v>0.94207417252621528</v>
+      </c>
+      <c r="E151">
+        <v>5.6123090779741955e-09</v>
+      </c>
+      <c r="F151">
+        <v>3</v>
+      </c>
+      <c r="G151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="B152">
+        <v>0.014831499572114177</v>
+      </c>
+      <c r="C152">
+        <v>0.0043272898336503161</v>
+      </c>
+      <c r="D152">
+        <v>0.98084120909741512</v>
+      </c>
+      <c r="E152">
+        <v>1.4968204898252125e-09</v>
+      </c>
+      <c r="F152">
+        <v>3</v>
+      </c>
+      <c r="G152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="9" t="s">
+        <v>890</v>
+      </c>
+      <c r="B153">
+        <v>0.019176413297965284</v>
+      </c>
+      <c r="C153">
+        <v>0.032540400285930887</v>
+      </c>
+      <c r="D153">
+        <v>0.9482831197724767</v>
+      </c>
+      <c r="E153">
+        <v>6.6643627221079551e-08</v>
+      </c>
+      <c r="F153">
+        <v>3</v>
+      </c>
+      <c r="G153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="B154">
+        <v>0.0079668271298435119</v>
+      </c>
+      <c r="C154">
+        <v>0.00083841950367055564</v>
+      </c>
+      <c r="D154">
+        <v>0.99119475336053608</v>
+      </c>
+      <c r="E154">
+        <v>5.9498346326367012e-12</v>
+      </c>
+      <c r="F154">
+        <v>3</v>
+      </c>
+      <c r="G154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="B155">
+        <v>0.0096114668014039683</v>
+      </c>
+      <c r="C155">
+        <v>0.0035627978832135634</v>
+      </c>
+      <c r="D155">
+        <v>0.98682572401055724</v>
+      </c>
+      <c r="E155">
+        <v>1.1304825357002943e-08</v>
+      </c>
+      <c r="F155">
+        <v>3</v>
+      </c>
+      <c r="G155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="B156">
+        <v>0.095030956124490862</v>
+      </c>
+      <c r="C156">
+        <v>0.064185308328237323</v>
+      </c>
+      <c r="D156">
+        <v>0.84064065537447952</v>
+      </c>
+      <c r="E156">
+        <v>0.00014308017279231528</v>
+      </c>
+      <c r="F156">
+        <v>3</v>
+      </c>
+      <c r="G156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="B157">
+        <v>0.0015978416753752982</v>
+      </c>
+      <c r="C157">
+        <v>0.00033243933709841181</v>
+      </c>
+      <c r="D157">
+        <v>0.99806971882880247</v>
+      </c>
+      <c r="E157">
+        <v>1.5872382705195515e-10</v>
+      </c>
+      <c r="F157">
+        <v>3</v>
+      </c>
+      <c r="G157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="9" t="s">
+        <v>895</v>
+      </c>
+      <c r="B158">
+        <v>0.0007581136996397934</v>
+      </c>
+      <c r="C158">
+        <v>0.013430458377106862</v>
+      </c>
+      <c r="D158">
+        <v>0.98581142614487915</v>
+      </c>
+      <c r="E158">
+        <v>1.7783741456527413e-09</v>
+      </c>
+      <c r="F158">
+        <v>3</v>
+      </c>
+      <c r="G158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="B159">
+        <v>0.071770165320679188</v>
+      </c>
+      <c r="C159">
+        <v>0.0022007590497468235</v>
+      </c>
+      <c r="D159">
+        <v>0.92602099594732434</v>
+      </c>
+      <c r="E159">
+        <v>8.0796822497307025e-06</v>
+      </c>
+      <c r="F159">
+        <v>3</v>
+      </c>
+      <c r="G159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="9" t="s">
+        <v>897</v>
+      </c>
+      <c r="B160">
+        <v>0.014749101668319022</v>
+      </c>
+      <c r="C160">
+        <v>0.60703570161457709</v>
+      </c>
+      <c r="D160">
+        <v>0.37565773452141071</v>
+      </c>
+      <c r="E160">
+        <v>0.0025574621956932081</v>
+      </c>
+      <c r="F160">
+        <v>2</v>
+      </c>
+      <c r="G160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="9" t="s">
+        <v>898</v>
+      </c>
+      <c r="B161">
+        <v>0.063639851649484963</v>
+      </c>
+      <c r="C161">
+        <v>0.037478638210335306</v>
+      </c>
+      <c r="D161">
+        <v>0.89881080096091326</v>
+      </c>
+      <c r="E161">
+        <v>7.0709179266409338e-05</v>
+      </c>
+      <c r="F161">
+        <v>3</v>
+      </c>
+      <c r="G161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="9" t="s">
+        <v>899</v>
+      </c>
+      <c r="B162">
+        <v>0.0034646772875564979</v>
+      </c>
+      <c r="C162">
+        <v>0.044871893505513474</v>
+      </c>
+      <c r="D162">
+        <v>0.95165957950234992</v>
+      </c>
+      <c r="E162">
+        <v>3.8497045801479147e-06</v>
+      </c>
+      <c r="F162">
+        <v>3</v>
+      </c>
+      <c r="G162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="9" t="s">
+        <v>900</v>
+      </c>
+      <c r="B163">
+        <v>0.068236246759904834</v>
+      </c>
+      <c r="C163">
+        <v>0.078369076248032896</v>
+      </c>
+      <c r="D163">
+        <v>0.85267795804377711</v>
+      </c>
+      <c r="E163">
+        <v>0.00071671894828514223</v>
+      </c>
+      <c r="F163">
+        <v>3</v>
+      </c>
+      <c r="G163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="B164">
+        <v>0.0019008337734051116</v>
+      </c>
+      <c r="C164">
+        <v>0.098078911223663495</v>
+      </c>
+      <c r="D164">
+        <v>0.89931542619963245</v>
+      </c>
+      <c r="E164">
+        <v>0.0007048288032989623</v>
+      </c>
+      <c r="F164">
+        <v>3</v>
+      </c>
+      <c r="G164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="9" t="s">
+        <v>902</v>
+      </c>
+      <c r="B165">
+        <v>0.049631879717713566</v>
+      </c>
+      <c r="C165">
+        <v>4.0375456755805167e-05</v>
+      </c>
+      <c r="D165">
+        <v>0.0012654024996997548</v>
+      </c>
+      <c r="E165">
+        <v>0.94906234232583087</v>
+      </c>
+      <c r="F165">
+        <v>4</v>
+      </c>
+      <c r="G165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="B166">
+        <v>0.12506664143078181</v>
+      </c>
+      <c r="C166">
+        <v>0.00011303551465561931</v>
+      </c>
+      <c r="D166">
+        <v>0.0013687454002109182</v>
+      </c>
+      <c r="E166">
+        <v>0.87345157765435155</v>
+      </c>
+      <c r="F166">
+        <v>4</v>
+      </c>
+      <c r="G166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="9" t="s">
+        <v>904</v>
+      </c>
+      <c r="B167">
+        <v>5.0601118252819313e-05</v>
+      </c>
+      <c r="C167">
+        <v>0.00065811294554623406</v>
+      </c>
+      <c r="D167">
+        <v>0.020465304392963395</v>
+      </c>
+      <c r="E167">
+        <v>0.97882598154323763</v>
+      </c>
+      <c r="F167">
+        <v>4</v>
+      </c>
+      <c r="G167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="B168">
+        <v>0.012908171017696545</v>
+      </c>
+      <c r="C168">
+        <v>0.00016201520048102742</v>
+      </c>
+      <c r="D168">
+        <v>0.062187539548940247</v>
+      </c>
+      <c r="E168">
+        <v>0.92474227423288224</v>
+      </c>
+      <c r="F168">
+        <v>4</v>
+      </c>
+      <c r="G168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="B169">
+        <v>0.00045741196010760726</v>
+      </c>
+      <c r="C169">
+        <v>0.00044645754213916639</v>
+      </c>
+      <c r="D169">
+        <v>0.013400020816873349</v>
+      </c>
+      <c r="E169">
+        <v>0.98569610968087995</v>
+      </c>
+      <c r="F169">
+        <v>4</v>
+      </c>
+      <c r="G169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="9" t="s">
+        <v>907</v>
+      </c>
+      <c r="B170">
+        <v>0.0021305678713580312</v>
+      </c>
+      <c r="C170">
+        <v>0.002141605914314984</v>
+      </c>
+      <c r="D170">
+        <v>0.030566963843718722</v>
+      </c>
+      <c r="E170">
+        <v>0.96516086237060827</v>
+      </c>
+      <c r="F170">
+        <v>4</v>
+      </c>
+      <c r="G170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="B171">
+        <v>0.0014229223671743717</v>
+      </c>
+      <c r="C171">
+        <v>5.841688034159814e-05</v>
+      </c>
+      <c r="D171">
+        <v>0.005489655740024281</v>
+      </c>
+      <c r="E171">
+        <v>0.99302900501245983</v>
+      </c>
+      <c r="F171">
+        <v>4</v>
+      </c>
+      <c r="G171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="B172">
+        <v>0.089789084463205937</v>
+      </c>
+      <c r="C172">
+        <v>0.21786231898959688</v>
+      </c>
+      <c r="D172">
+        <v>0.5245139679481815</v>
+      </c>
+      <c r="E172">
+        <v>0.16783462859901574</v>
+      </c>
+      <c r="F172">
+        <v>3</v>
+      </c>
+      <c r="G172">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="B173">
+        <v>0.0031663994523115665</v>
+      </c>
+      <c r="C173">
+        <v>0.00031684264769101867</v>
+      </c>
+      <c r="D173">
+        <v>0.022005099648307883</v>
+      </c>
+      <c r="E173">
+        <v>0.97451165825168951</v>
+      </c>
+      <c r="F173">
+        <v>4</v>
+      </c>
+      <c r="G173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="9" t="s">
+        <v>911</v>
+      </c>
+      <c r="B174">
+        <v>0.0069227249306423235</v>
+      </c>
+      <c r="C174">
+        <v>0.031131821316780502</v>
+      </c>
+      <c r="D174">
+        <v>0.12201850653378439</v>
+      </c>
+      <c r="E174">
+        <v>0.8399269472187928</v>
+      </c>
+      <c r="F174">
+        <v>4</v>
+      </c>
+      <c r="G174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="9" t="s">
+        <v>912</v>
+      </c>
+      <c r="B175">
+        <v>9.5287615181867454e-05</v>
+      </c>
+      <c r="C175">
+        <v>9.559318671043542e-05</v>
+      </c>
+      <c r="D175">
+        <v>0.039277238536617409</v>
+      </c>
+      <c r="E175">
+        <v>0.9605318806614902</v>
+      </c>
+      <c r="F175">
+        <v>4</v>
+      </c>
+      <c r="G175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="B176">
+        <v>1.0287393121891744e-05</v>
+      </c>
+      <c r="C176">
+        <v>0.00058602940441920771</v>
+      </c>
+      <c r="D176">
+        <v>0.033229499122171657</v>
+      </c>
+      <c r="E176">
+        <v>0.96617418408028721</v>
+      </c>
+      <c r="F176">
+        <v>4</v>
+      </c>
+      <c r="G176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="9" t="s">
+        <v>914</v>
+      </c>
+      <c r="B177">
+        <v>0.0016948760976306999</v>
+      </c>
+      <c r="C177">
+        <v>0.016196709662614234</v>
+      </c>
+      <c r="D177">
+        <v>0.075450346974920007</v>
+      </c>
+      <c r="E177">
+        <v>0.90665806726483511</v>
+      </c>
+      <c r="F177">
+        <v>4</v>
+      </c>
+      <c r="G177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="B178">
+        <v>0.00060251223211622298</v>
+      </c>
+      <c r="C178">
+        <v>0.00060666455825491346</v>
+      </c>
+      <c r="D178">
+        <v>0.062592584426978959</v>
+      </c>
+      <c r="E178">
+        <v>0.93619823878264985</v>
+      </c>
+      <c r="F178">
+        <v>4</v>
+      </c>
+      <c r="G178">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="9" t="s">
+        <v>916</v>
+      </c>
+      <c r="B179">
+        <v>0.11829901930321748</v>
+      </c>
+      <c r="C179">
+        <v>0.0004580922902178007</v>
+      </c>
+      <c r="D179">
+        <v>0.0093349827392019587</v>
+      </c>
+      <c r="E179">
+        <v>0.87190790566736276</v>
+      </c>
+      <c r="F179">
+        <v>4</v>
+      </c>
+      <c r="G179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="9" t="s">
+        <v>917</v>
+      </c>
+      <c r="B180">
+        <v>0.0010073444205376291</v>
+      </c>
+      <c r="C180">
+        <v>0.00081231890323595589</v>
+      </c>
+      <c r="D180">
+        <v>0.0088721914250002327</v>
+      </c>
+      <c r="E180">
+        <v>0.98930814525122623</v>
+      </c>
+      <c r="F180">
+        <v>4</v>
+      </c>
+      <c r="G180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="9" t="s">
+        <v>918</v>
+      </c>
+      <c r="B181">
+        <v>0.0045770703049006194</v>
+      </c>
+      <c r="C181">
+        <v>0.039816828470697098</v>
+      </c>
+      <c r="D181">
+        <v>0.57889706426308385</v>
+      </c>
+      <c r="E181">
+        <v>0.37670903696131858</v>
+      </c>
+      <c r="F181">
+        <v>3</v>
+      </c>
+      <c r="G181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="9" t="s">
+        <v>919</v>
+      </c>
+      <c r="B182">
+        <v>0.0001997393978403264</v>
+      </c>
+      <c r="C182">
+        <v>0.00020812623990607479</v>
+      </c>
+      <c r="D182">
+        <v>0.047077876792328527</v>
+      </c>
+      <c r="E182">
+        <v>0.95251425756992514</v>
+      </c>
+      <c r="F182">
+        <v>4</v>
+      </c>
+      <c r="G182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="9" t="s">
+        <v>920</v>
+      </c>
+      <c r="B183">
+        <v>0.00072187446678631973</v>
+      </c>
+      <c r="C183">
+        <v>0.028218176931044059</v>
+      </c>
+      <c r="D183">
+        <v>0.15270408735562144</v>
+      </c>
+      <c r="E183">
+        <v>0.81835586124654813</v>
+      </c>
+      <c r="F183">
+        <v>4</v>
+      </c>
+      <c r="G183">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>